--- a/BackTest/2020-01-16 BackTest XMR.xlsx
+++ b/BackTest/2020-01-16 BackTest XMR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M290"/>
+  <dimension ref="A1:N300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>3.053</v>
       </c>
       <c r="G2" t="n">
+        <v>68070</v>
+      </c>
+      <c r="H2" t="n">
         <v>67245.83333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>24.9036</v>
       </c>
       <c r="G3" t="n">
+        <v>68200</v>
+      </c>
+      <c r="H3" t="n">
         <v>67298.33333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>69050</v>
+      </c>
+      <c r="L3" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,29 @@
         <v>46.36285734767</v>
       </c>
       <c r="G4" t="n">
+        <v>68403.33333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>67347.5</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>69450</v>
+      </c>
+      <c r="L4" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,29 @@
         <v>10.32</v>
       </c>
       <c r="G5" t="n">
+        <v>68516.66666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>67374.16666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>69750</v>
+      </c>
+      <c r="L5" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +625,29 @@
         <v>46.3628</v>
       </c>
       <c r="G6" t="n">
+        <v>68596.66666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>67411.66666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>68450</v>
+      </c>
+      <c r="L6" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +671,29 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
+        <v>68686.66666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>67460.83333333333</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>68850</v>
+      </c>
+      <c r="L7" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +717,29 @@
         <v>50</v>
       </c>
       <c r="G8" t="n">
+        <v>68750</v>
+      </c>
+      <c r="H8" t="n">
         <v>67500</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>69150</v>
+      </c>
+      <c r="L8" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +763,29 @@
         <v>9.4077</v>
       </c>
       <c r="G9" t="n">
+        <v>68796.66666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>67535.83333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>68850</v>
+      </c>
+      <c r="L9" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +809,29 @@
         <v>0.242</v>
       </c>
       <c r="G10" t="n">
+        <v>68823.33333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>67567.5</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>68600</v>
+      </c>
+      <c r="L10" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +855,29 @@
         <v>1.1326</v>
       </c>
       <c r="G11" t="n">
+        <v>68846.66666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>67601.66666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>68350</v>
+      </c>
+      <c r="L11" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +901,29 @@
         <v>0.36</v>
       </c>
       <c r="G12" t="n">
+        <v>68833.33333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>67637.5</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>68350</v>
+      </c>
+      <c r="L12" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +947,29 @@
         <v>2.417</v>
       </c>
       <c r="G13" t="n">
+        <v>68816.66666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>67677.5</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>68300</v>
+      </c>
+      <c r="L13" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +993,29 @@
         <v>31.4518</v>
       </c>
       <c r="G14" t="n">
+        <v>68773.33333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>67707.5</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>68250</v>
+      </c>
+      <c r="L14" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1039,29 @@
         <v>31.3943</v>
       </c>
       <c r="G15" t="n">
+        <v>68730</v>
+      </c>
+      <c r="H15" t="n">
         <v>67737.5</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>68300</v>
+      </c>
+      <c r="L15" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1085,29 @@
         <v>4.9552</v>
       </c>
       <c r="G16" t="n">
+        <v>68686.66666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>67768.33333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>68300</v>
+      </c>
+      <c r="L16" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1131,29 @@
         <v>0.7105</v>
       </c>
       <c r="G17" t="n">
+        <v>68623.33333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>67805</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>68300</v>
+      </c>
+      <c r="L17" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1177,29 @@
         <v>27.7917</v>
       </c>
       <c r="G18" t="n">
+        <v>68546.66666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>67833.33333333333</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>68100</v>
+      </c>
+      <c r="L18" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1223,29 @@
         <v>2.5454</v>
       </c>
       <c r="G19" t="n">
+        <v>68430</v>
+      </c>
+      <c r="H19" t="n">
         <v>67850</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>68300</v>
+      </c>
+      <c r="L19" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1269,29 @@
         <v>7</v>
       </c>
       <c r="G20" t="n">
+        <v>68453.33333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>67880</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>68000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1315,29 @@
         <v>2</v>
       </c>
       <c r="G21" t="n">
+        <v>68450</v>
+      </c>
+      <c r="H21" t="n">
         <v>67905</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L21" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1361,27 @@
         <v>3.341</v>
       </c>
       <c r="G22" t="n">
+        <v>68426.66666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>67930</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1405,27 @@
         <v>4.0178</v>
       </c>
       <c r="G23" t="n">
+        <v>68466.66666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>67972.5</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1449,27 @@
         <v>0.8336</v>
       </c>
       <c r="G24" t="n">
+        <v>68493.33333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>68005</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1493,27 @@
         <v>7.473</v>
       </c>
       <c r="G25" t="n">
+        <v>68563.33333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>68035.83333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1537,27 @@
         <v>26.1975</v>
       </c>
       <c r="G26" t="n">
+        <v>68640</v>
+      </c>
+      <c r="H26" t="n">
         <v>68068.33333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1581,27 @@
         <v>27.3836</v>
       </c>
       <c r="G27" t="n">
+        <v>68720</v>
+      </c>
+      <c r="H27" t="n">
         <v>68100</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1625,27 @@
         <v>1.438848920863</v>
       </c>
       <c r="G28" t="n">
+        <v>68803.33333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>68137.5</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1669,27 @@
         <v>0.1136</v>
       </c>
       <c r="G29" t="n">
+        <v>68876.66666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>68177.5</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1713,27 @@
         <v>5.8857</v>
       </c>
       <c r="G30" t="n">
+        <v>68896.66666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>68195.83333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1757,27 @@
         <v>0.3</v>
       </c>
       <c r="G31" t="n">
+        <v>68886.66666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>68207.5</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1801,27 @@
         <v>4.5634</v>
       </c>
       <c r="G32" t="n">
+        <v>68910</v>
+      </c>
+      <c r="H32" t="n">
         <v>68221.66666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1845,27 @@
         <v>0.2817</v>
       </c>
       <c r="G33" t="n">
+        <v>68910</v>
+      </c>
+      <c r="H33" t="n">
         <v>68230.83333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1889,27 @@
         <v>90</v>
       </c>
       <c r="G34" t="n">
+        <v>68913.33333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>68250</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1933,29 @@
         <v>3</v>
       </c>
       <c r="G35" t="n">
+        <v>68913.33333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>68271.66666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>68050</v>
+      </c>
+      <c r="L35" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1979,27 @@
         <v>0.4944</v>
       </c>
       <c r="G36" t="n">
+        <v>68913.33333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>68301.66666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +2023,27 @@
         <v>7.011</v>
       </c>
       <c r="G37" t="n">
+        <v>68910</v>
+      </c>
+      <c r="H37" t="n">
         <v>68335</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +2067,27 @@
         <v>503.6657</v>
       </c>
       <c r="G38" t="n">
+        <v>68946.66666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>68389.16666666667</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2111,27 @@
         <v>116.7945</v>
       </c>
       <c r="G39" t="n">
+        <v>69010</v>
+      </c>
+      <c r="H39" t="n">
         <v>68436.66666666667</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2155,27 @@
         <v>499.7904</v>
       </c>
       <c r="G40" t="n">
+        <v>69076.66666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>68493.33333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2199,27 @@
         <v>482.286638476562</v>
       </c>
       <c r="G41" t="n">
+        <v>69193.33333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>68555.83333333333</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2243,27 @@
         <v>28.2924</v>
       </c>
       <c r="G42" t="n">
+        <v>69493.33333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>68664.16666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2287,27 @@
         <v>487.5511</v>
       </c>
       <c r="G43" t="n">
+        <v>69773.33333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>68767.5</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2331,27 @@
         <v>100.9665</v>
       </c>
       <c r="G44" t="n">
+        <v>70060</v>
+      </c>
+      <c r="H44" t="n">
         <v>68870.83333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2375,27 @@
         <v>348.5679</v>
       </c>
       <c r="G45" t="n">
+        <v>70376.66666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>68968.33333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2419,27 @@
         <v>340.8979</v>
       </c>
       <c r="G46" t="n">
+        <v>70720</v>
+      </c>
+      <c r="H46" t="n">
         <v>69065</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2463,27 @@
         <v>110.381103759398</v>
       </c>
       <c r="G47" t="n">
+        <v>71040</v>
+      </c>
+      <c r="H47" t="n">
         <v>69160.83333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2507,27 @@
         <v>36.2751</v>
       </c>
       <c r="G48" t="n">
+        <v>71316.66666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>69243.33333333333</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2551,27 @@
         <v>109.4317</v>
       </c>
       <c r="G49" t="n">
+        <v>71610</v>
+      </c>
+      <c r="H49" t="n">
         <v>69339.16666666667</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2595,27 @@
         <v>20.9966</v>
       </c>
       <c r="G50" t="n">
+        <v>71800</v>
+      </c>
+      <c r="H50" t="n">
         <v>69420.83333333333</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2639,27 @@
         <v>0.6</v>
       </c>
       <c r="G51" t="n">
+        <v>72033.33333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>69498.33333333333</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2683,27 @@
         <v>80.89360000000001</v>
       </c>
       <c r="G52" t="n">
+        <v>72280</v>
+      </c>
+      <c r="H52" t="n">
         <v>69575.83333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2727,27 @@
         <v>40.2762</v>
       </c>
       <c r="G53" t="n">
+        <v>72493.33333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>69664.16666666667</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2771,27 @@
         <v>76.6718</v>
       </c>
       <c r="G54" t="n">
+        <v>72706.66666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>69751.66666666667</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2815,27 @@
         <v>2.0032</v>
       </c>
       <c r="G55" t="n">
+        <v>72890</v>
+      </c>
+      <c r="H55" t="n">
         <v>69838.33333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2859,27 @@
         <v>10.0146</v>
       </c>
       <c r="G56" t="n">
+        <v>73060</v>
+      </c>
+      <c r="H56" t="n">
         <v>69935</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2903,27 @@
         <v>9.624060199999999e-05</v>
       </c>
       <c r="G57" t="n">
+        <v>73046.66666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>70023.33333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2947,27 @@
         <v>37.206195703899</v>
       </c>
       <c r="G58" t="n">
+        <v>73020</v>
+      </c>
+      <c r="H58" t="n">
         <v>70103.33333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2991,27 @@
         <v>17.3462</v>
       </c>
       <c r="G59" t="n">
+        <v>73100</v>
+      </c>
+      <c r="H59" t="n">
         <v>70202.5</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +3035,27 @@
         <v>75.01139999999999</v>
       </c>
       <c r="G60" t="n">
+        <v>73203.33333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>70301.66666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +3079,27 @@
         <v>172.7068</v>
       </c>
       <c r="G61" t="n">
+        <v>73436.66666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>70432.5</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +3123,27 @@
         <v>390.668561523438</v>
       </c>
       <c r="G62" t="n">
+        <v>73756.66666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>70582.5</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +3167,27 @@
         <v>67.7137</v>
       </c>
       <c r="G63" t="n">
+        <v>74086.66666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>70715</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,19 +3211,28 @@
         <v>134.6891</v>
       </c>
       <c r="G64" t="n">
+        <v>74433.33333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>70846.66666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
+      <c r="L64" t="n">
+        <v>69050</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>1.119547429398986</v>
       </c>
     </row>
     <row r="65">
@@ -2653,18 +3255,21 @@
         <v>26.594</v>
       </c>
       <c r="G65" t="n">
+        <v>74820</v>
+      </c>
+      <c r="H65" t="n">
         <v>70996.66666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +3293,21 @@
         <v>52.6382</v>
       </c>
       <c r="G66" t="n">
+        <v>75073.33333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>71117.5</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3331,21 @@
         <v>64.9385</v>
       </c>
       <c r="G67" t="n">
+        <v>75203.33333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>71205</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3369,21 @@
         <v>10.2</v>
       </c>
       <c r="G68" t="n">
+        <v>75300</v>
+      </c>
+      <c r="H68" t="n">
         <v>71301.66666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3407,21 @@
         <v>8.879300000000001</v>
       </c>
       <c r="G69" t="n">
+        <v>75433.33333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>71410.83333333333</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3445,21 @@
         <v>64.20659999999999</v>
       </c>
       <c r="G70" t="n">
+        <v>75526.66666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>71514.16666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3483,21 @@
         <v>0.2652</v>
       </c>
       <c r="G71" t="n">
+        <v>75610</v>
+      </c>
+      <c r="H71" t="n">
         <v>71625.83333333333</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3521,21 @@
         <v>379.324</v>
       </c>
       <c r="G72" t="n">
+        <v>75690</v>
+      </c>
+      <c r="H72" t="n">
         <v>71737.5</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3559,21 @@
         <v>41.2415</v>
       </c>
       <c r="G73" t="n">
+        <v>75793.33333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>71847.5</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3597,21 @@
         <v>33.6677</v>
       </c>
       <c r="G74" t="n">
+        <v>75853.33333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>71972.5</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3635,21 @@
         <v>235.629383870967</v>
       </c>
       <c r="G75" t="n">
+        <v>76060</v>
+      </c>
+      <c r="H75" t="n">
         <v>72134.16666666667</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3673,21 @@
         <v>3</v>
       </c>
       <c r="G76" t="n">
+        <v>76103.33333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>72286.66666666667</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3711,21 @@
         <v>1.4189</v>
       </c>
       <c r="G77" t="n">
+        <v>75990</v>
+      </c>
+      <c r="H77" t="n">
         <v>72424.16666666667</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3749,21 @@
         <v>6.7682</v>
       </c>
       <c r="G78" t="n">
+        <v>75920</v>
+      </c>
+      <c r="H78" t="n">
         <v>72558.33333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3787,21 @@
         <v>6.8252</v>
       </c>
       <c r="G79" t="n">
+        <v>75756.66666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>72678.33333333333</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3825,21 @@
         <v>6.2936</v>
       </c>
       <c r="G80" t="n">
+        <v>75610</v>
+      </c>
+      <c r="H80" t="n">
         <v>72785.83333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3863,21 @@
         <v>107.9503</v>
       </c>
       <c r="G81" t="n">
+        <v>75523.33333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>72885.83333333333</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3901,21 @@
         <v>18.185</v>
       </c>
       <c r="G82" t="n">
+        <v>75576.66666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>72992.5</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3939,21 @@
         <v>163.5894</v>
       </c>
       <c r="G83" t="n">
+        <v>75553.33333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>73073.33333333333</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3977,21 @@
         <v>189.4361</v>
       </c>
       <c r="G84" t="n">
+        <v>75363.33333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>73128.33333333333</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +4015,21 @@
         <v>2.2622</v>
       </c>
       <c r="G85" t="n">
+        <v>75146.66666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>73160</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +4053,21 @@
         <v>23.6056</v>
       </c>
       <c r="G86" t="n">
+        <v>75140</v>
+      </c>
+      <c r="H86" t="n">
         <v>73250.83333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +4091,21 @@
         <v>83.7941</v>
       </c>
       <c r="G87" t="n">
+        <v>74933.33333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>73290.83333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +4129,21 @@
         <v>6.2</v>
       </c>
       <c r="G88" t="n">
+        <v>74710</v>
+      </c>
+      <c r="H88" t="n">
         <v>73324.16666666667</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,24 +4167,21 @@
         <v>30.6331</v>
       </c>
       <c r="G89" t="n">
+        <v>74420</v>
+      </c>
+      <c r="H89" t="n">
         <v>73358.33333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>71500</v>
+        <v>0</v>
       </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3534,24 +4205,21 @@
         <v>147.1904</v>
       </c>
       <c r="G90" t="n">
+        <v>74040</v>
+      </c>
+      <c r="H90" t="n">
         <v>73420</v>
       </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>71450</v>
+        <v>0</v>
       </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3575,22 +4243,21 @@
         <v>24.0597</v>
       </c>
       <c r="G91" t="n">
+        <v>73726.66666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>73496.66666666667</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3614,22 +4281,21 @@
         <v>13.0976</v>
       </c>
       <c r="G92" t="n">
+        <v>73360</v>
+      </c>
+      <c r="H92" t="n">
         <v>73536.66666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3653,22 +4319,21 @@
         <v>13.2589</v>
       </c>
       <c r="G93" t="n">
+        <v>73036.66666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>73590</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3692,22 +4357,21 @@
         <v>59.5462</v>
       </c>
       <c r="G94" t="n">
+        <v>73040</v>
+      </c>
+      <c r="H94" t="n">
         <v>73710</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3731,22 +4395,21 @@
         <v>86.4905</v>
       </c>
       <c r="G95" t="n">
+        <v>72923.33333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>73788.33333333333</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3770,22 +4433,21 @@
         <v>0.5713</v>
       </c>
       <c r="G96" t="n">
+        <v>72836.66666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>73866.66666666667</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3809,22 +4471,21 @@
         <v>7.9567</v>
       </c>
       <c r="G97" t="n">
+        <v>72720</v>
+      </c>
+      <c r="H97" t="n">
         <v>73945</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3848,22 +4509,21 @@
         <v>9.2096</v>
       </c>
       <c r="G98" t="n">
+        <v>72660</v>
+      </c>
+      <c r="H98" t="n">
         <v>74001.66666666667</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3887,22 +4547,21 @@
         <v>0.040501694915</v>
       </c>
       <c r="G99" t="n">
+        <v>72756.66666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>74065</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3926,22 +4585,21 @@
         <v>16.117899864682</v>
       </c>
       <c r="G100" t="n">
+        <v>72873.33333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>74109.16666666667</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3965,22 +4623,21 @@
         <v>34.5795</v>
       </c>
       <c r="G101" t="n">
+        <v>72736.66666666667</v>
+      </c>
+      <c r="H101" t="n">
         <v>74136.66666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4004,22 +4661,21 @@
         <v>26.7618</v>
       </c>
       <c r="G102" t="n">
+        <v>72823.33333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>74123.33333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4043,22 +4699,21 @@
         <v>2</v>
       </c>
       <c r="G103" t="n">
+        <v>72946.66666666667</v>
+      </c>
+      <c r="H103" t="n">
         <v>74117.5</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4082,22 +4737,21 @@
         <v>24.5562</v>
       </c>
       <c r="G104" t="n">
+        <v>73036.66666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>74102.5</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4121,22 +4775,21 @@
         <v>25.0285</v>
       </c>
       <c r="G105" t="n">
+        <v>73163.33333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>74116.66666666667</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4160,22 +4813,21 @@
         <v>7.375</v>
       </c>
       <c r="G106" t="n">
+        <v>73213.33333333333</v>
+      </c>
+      <c r="H106" t="n">
         <v>74120</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4199,22 +4851,21 @@
         <v>0.4082</v>
       </c>
       <c r="G107" t="n">
+        <v>73396.66666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>74125.83333333333</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4238,22 +4889,21 @@
         <v>36.3452</v>
       </c>
       <c r="G108" t="n">
+        <v>73556.66666666667</v>
+      </c>
+      <c r="H108" t="n">
         <v>74150</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4277,22 +4927,21 @@
         <v>1.291</v>
       </c>
       <c r="G109" t="n">
+        <v>73396.66666666667</v>
+      </c>
+      <c r="H109" t="n">
         <v>74156.66666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4316,22 +4965,21 @@
         <v>1.2445</v>
       </c>
       <c r="G110" t="n">
+        <v>73406.66666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>74190</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4355,22 +5003,21 @@
         <v>0.6766</v>
       </c>
       <c r="G111" t="n">
+        <v>73426.66666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>74215</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4394,22 +5041,21 @@
         <v>2.669</v>
       </c>
       <c r="G112" t="n">
+        <v>73436.66666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>74234.16666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4433,22 +5079,21 @@
         <v>2.977</v>
       </c>
       <c r="G113" t="n">
+        <v>73453.33333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>74241.66666666667</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4472,22 +5117,21 @@
         <v>0.1098</v>
       </c>
       <c r="G114" t="n">
+        <v>73416.66666666667</v>
+      </c>
+      <c r="H114" t="n">
         <v>74242.5</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4511,22 +5155,21 @@
         <v>10.135</v>
       </c>
       <c r="G115" t="n">
+        <v>73446.66666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>74248.33333333333</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4550,22 +5193,21 @@
         <v>0.4476</v>
       </c>
       <c r="G116" t="n">
+        <v>73480</v>
+      </c>
+      <c r="H116" t="n">
         <v>74241.66666666667</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4589,22 +5231,21 @@
         <v>4.6307</v>
       </c>
       <c r="G117" t="n">
+        <v>73490</v>
+      </c>
+      <c r="H117" t="n">
         <v>74234.16666666667</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4628,22 +5269,21 @@
         <v>9.3019</v>
       </c>
       <c r="G118" t="n">
+        <v>73466.66666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>74229.16666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4667,22 +5307,21 @@
         <v>1.9497</v>
       </c>
       <c r="G119" t="n">
+        <v>73533.33333333333</v>
+      </c>
+      <c r="H119" t="n">
         <v>74210.83333333333</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4706,22 +5345,21 @@
         <v>41.9995</v>
       </c>
       <c r="G120" t="n">
+        <v>73503.33333333333</v>
+      </c>
+      <c r="H120" t="n">
         <v>74191.66666666667</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4745,22 +5383,21 @@
         <v>50</v>
       </c>
       <c r="G121" t="n">
+        <v>73523.33333333333</v>
+      </c>
+      <c r="H121" t="n">
         <v>74141.66666666667</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4784,22 +5421,21 @@
         <v>0.4254</v>
       </c>
       <c r="G122" t="n">
+        <v>73506.66666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>74063.33333333333</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,22 +5459,21 @@
         <v>0.276701355013</v>
       </c>
       <c r="G123" t="n">
+        <v>73500</v>
+      </c>
+      <c r="H123" t="n">
         <v>74003.33333333333</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4862,22 +5497,21 @@
         <v>5.9321</v>
       </c>
       <c r="G124" t="n">
+        <v>73523.33333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>73929.16666666667</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4901,22 +5535,21 @@
         <v>6.2</v>
       </c>
       <c r="G125" t="n">
+        <v>73510</v>
+      </c>
+      <c r="H125" t="n">
         <v>73862.5</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4940,22 +5573,21 @@
         <v>6.4</v>
       </c>
       <c r="G126" t="n">
+        <v>73486.66666666667</v>
+      </c>
+      <c r="H126" t="n">
         <v>73818.33333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4979,22 +5611,21 @@
         <v>2.0896</v>
       </c>
       <c r="G127" t="n">
+        <v>73453.33333333333</v>
+      </c>
+      <c r="H127" t="n">
         <v>73796.66666666667</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5018,22 +5649,21 @@
         <v>0.6708</v>
       </c>
       <c r="G128" t="n">
+        <v>73403.33333333333</v>
+      </c>
+      <c r="H128" t="n">
         <v>73767.5</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5057,22 +5687,21 @@
         <v>20.2065</v>
       </c>
       <c r="G129" t="n">
+        <v>73380</v>
+      </c>
+      <c r="H129" t="n">
         <v>73729.16666666667</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5096,22 +5725,21 @@
         <v>45.7881</v>
       </c>
       <c r="G130" t="n">
+        <v>73300</v>
+      </c>
+      <c r="H130" t="n">
         <v>73691.66666666667</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5135,22 +5763,21 @@
         <v>0.68</v>
       </c>
       <c r="G131" t="n">
+        <v>73260</v>
+      </c>
+      <c r="H131" t="n">
         <v>73654.16666666667</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5174,22 +5801,21 @@
         <v>0.85</v>
       </c>
       <c r="G132" t="n">
+        <v>73203.33333333333</v>
+      </c>
+      <c r="H132" t="n">
         <v>73612.5</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5213,22 +5839,21 @@
         <v>1.8934</v>
       </c>
       <c r="G133" t="n">
+        <v>73136.66666666667</v>
+      </c>
+      <c r="H133" t="n">
         <v>73565</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5252,22 +5877,21 @@
         <v>8.9047</v>
       </c>
       <c r="G134" t="n">
+        <v>73050</v>
+      </c>
+      <c r="H134" t="n">
         <v>73510</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5291,22 +5915,21 @@
         <v>53.5203</v>
       </c>
       <c r="G135" t="n">
+        <v>72913.33333333333</v>
+      </c>
+      <c r="H135" t="n">
         <v>73405</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5330,22 +5953,21 @@
         <v>1.32</v>
       </c>
       <c r="G136" t="n">
+        <v>72783.33333333333</v>
+      </c>
+      <c r="H136" t="n">
         <v>73311.66666666667</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5369,22 +5991,21 @@
         <v>1.66</v>
       </c>
       <c r="G137" t="n">
+        <v>72663.33333333333</v>
+      </c>
+      <c r="H137" t="n">
         <v>73231.66666666667</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5408,22 +6029,21 @@
         <v>2.5758</v>
       </c>
       <c r="G138" t="n">
+        <v>72486.66666666667</v>
+      </c>
+      <c r="H138" t="n">
         <v>73145</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5447,22 +6067,21 @@
         <v>0.66</v>
       </c>
       <c r="G139" t="n">
+        <v>72313.33333333333</v>
+      </c>
+      <c r="H139" t="n">
         <v>73068.33333333333</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5486,22 +6105,21 @@
         <v>26.0067</v>
       </c>
       <c r="G140" t="n">
+        <v>72133.33333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>72993.33333333333</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5525,22 +6143,21 @@
         <v>68.51439999999999</v>
       </c>
       <c r="G141" t="n">
+        <v>72096.66666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>72961.66666666667</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5564,22 +6181,21 @@
         <v>1.6433</v>
       </c>
       <c r="G142" t="n">
+        <v>72006.66666666667</v>
+      </c>
+      <c r="H142" t="n">
         <v>72904.16666666667</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5603,22 +6219,21 @@
         <v>31.4585</v>
       </c>
       <c r="G143" t="n">
+        <v>71856.66666666667</v>
+      </c>
+      <c r="H143" t="n">
         <v>72843.33333333333</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5642,22 +6257,21 @@
         <v>5.0769</v>
       </c>
       <c r="G144" t="n">
+        <v>71766.66666666667</v>
+      </c>
+      <c r="H144" t="n">
         <v>72830</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5681,22 +6295,21 @@
         <v>265.78</v>
       </c>
       <c r="G145" t="n">
+        <v>71673.33333333333</v>
+      </c>
+      <c r="H145" t="n">
         <v>72823.33333333333</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5720,22 +6333,21 @@
         <v>9.748588573407</v>
       </c>
       <c r="G146" t="n">
+        <v>71633.33333333333</v>
+      </c>
+      <c r="H146" t="n">
         <v>72777.5</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5759,22 +6371,21 @@
         <v>7.7602</v>
       </c>
       <c r="G147" t="n">
+        <v>71553.33333333333</v>
+      </c>
+      <c r="H147" t="n">
         <v>72767.5</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5798,22 +6409,21 @@
         <v>12.939</v>
       </c>
       <c r="G148" t="n">
+        <v>71493.33333333333</v>
+      </c>
+      <c r="H148" t="n">
         <v>72760.83333333333</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5837,22 +6447,21 @@
         <v>0.168825842696</v>
       </c>
       <c r="G149" t="n">
+        <v>71406.66666666667</v>
+      </c>
+      <c r="H149" t="n">
         <v>72756.66666666667</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5876,22 +6485,21 @@
         <v>1.1171</v>
       </c>
       <c r="G150" t="n">
+        <v>71373.33333333333</v>
+      </c>
+      <c r="H150" t="n">
         <v>72738.33333333333</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5915,22 +6523,21 @@
         <v>3.9159</v>
       </c>
       <c r="G151" t="n">
+        <v>71303.33333333333</v>
+      </c>
+      <c r="H151" t="n">
         <v>72705.83333333333</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5954,22 +6561,21 @@
         <v>3</v>
       </c>
       <c r="G152" t="n">
+        <v>71253.33333333333</v>
+      </c>
+      <c r="H152" t="n">
         <v>72705</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5993,22 +6599,21 @@
         <v>10.552</v>
       </c>
       <c r="G153" t="n">
+        <v>71233.33333333333</v>
+      </c>
+      <c r="H153" t="n">
         <v>72694.16666666667</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6032,22 +6637,21 @@
         <v>1.5171</v>
       </c>
       <c r="G154" t="n">
+        <v>71250</v>
+      </c>
+      <c r="H154" t="n">
         <v>72620.83333333333</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6071,22 +6675,21 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G155" t="n">
+        <v>71273.33333333333</v>
+      </c>
+      <c r="H155" t="n">
         <v>72580.83333333333</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6110,22 +6713,21 @@
         <v>7.144595924104</v>
       </c>
       <c r="G156" t="n">
+        <v>71156.66666666667</v>
+      </c>
+      <c r="H156" t="n">
         <v>72541.66666666667</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6149,22 +6751,21 @@
         <v>2.743</v>
       </c>
       <c r="G157" t="n">
+        <v>71096.66666666667</v>
+      </c>
+      <c r="H157" t="n">
         <v>72498.33333333333</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,22 +6789,21 @@
         <v>8.6594</v>
       </c>
       <c r="G158" t="n">
+        <v>71106.66666666667</v>
+      </c>
+      <c r="H158" t="n">
         <v>72455</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6227,22 +6827,21 @@
         <v>0.554</v>
       </c>
       <c r="G159" t="n">
+        <v>71080</v>
+      </c>
+      <c r="H159" t="n">
         <v>72410.83333333333</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6266,22 +6865,21 @@
         <v>0.5649</v>
       </c>
       <c r="G160" t="n">
+        <v>71093.33333333333</v>
+      </c>
+      <c r="H160" t="n">
         <v>72378.33333333333</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6305,22 +6903,21 @@
         <v>5.824</v>
       </c>
       <c r="G161" t="n">
+        <v>70993.33333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>72341.66666666667</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6344,22 +6941,21 @@
         <v>18.5753</v>
       </c>
       <c r="G162" t="n">
+        <v>70946.66666666667</v>
+      </c>
+      <c r="H162" t="n">
         <v>72298.33333333333</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6383,22 +6979,21 @@
         <v>1.1439</v>
       </c>
       <c r="G163" t="n">
+        <v>70903.33333333333</v>
+      </c>
+      <c r="H163" t="n">
         <v>72250</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6422,22 +7017,21 @@
         <v>29.9196</v>
       </c>
       <c r="G164" t="n">
+        <v>70843.33333333333</v>
+      </c>
+      <c r="H164" t="n">
         <v>72208.33333333333</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6461,22 +7055,21 @@
         <v>11.1535</v>
       </c>
       <c r="G165" t="n">
+        <v>70776.66666666667</v>
+      </c>
+      <c r="H165" t="n">
         <v>72141.66666666667</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6500,22 +7093,21 @@
         <v>4.9269</v>
       </c>
       <c r="G166" t="n">
+        <v>70736.66666666667</v>
+      </c>
+      <c r="H166" t="n">
         <v>72086.66666666667</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6539,22 +7131,21 @@
         <v>10</v>
       </c>
       <c r="G167" t="n">
+        <v>70683.33333333333</v>
+      </c>
+      <c r="H167" t="n">
         <v>72026.66666666667</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6578,22 +7169,21 @@
         <v>3.28</v>
       </c>
       <c r="G168" t="n">
+        <v>70646.66666666667</v>
+      </c>
+      <c r="H168" t="n">
         <v>71966.66666666667</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6617,22 +7207,21 @@
         <v>14.6108</v>
       </c>
       <c r="G169" t="n">
+        <v>70606.66666666667</v>
+      </c>
+      <c r="H169" t="n">
         <v>71923.33333333333</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6656,22 +7245,21 @@
         <v>5.6</v>
       </c>
       <c r="G170" t="n">
+        <v>70533.33333333333</v>
+      </c>
+      <c r="H170" t="n">
         <v>71862.5</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6695,22 +7283,21 @@
         <v>1.8412</v>
       </c>
       <c r="G171" t="n">
+        <v>70476.66666666667</v>
+      </c>
+      <c r="H171" t="n">
         <v>71804.16666666667</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6734,22 +7321,21 @@
         <v>1.653</v>
       </c>
       <c r="G172" t="n">
+        <v>70443.33333333333</v>
+      </c>
+      <c r="H172" t="n">
         <v>71750</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6773,22 +7359,21 @@
         <v>13.1157</v>
       </c>
       <c r="G173" t="n">
+        <v>70413.33333333333</v>
+      </c>
+      <c r="H173" t="n">
         <v>71695</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6812,22 +7397,21 @@
         <v>0.4897</v>
       </c>
       <c r="G174" t="n">
+        <v>70386.66666666667</v>
+      </c>
+      <c r="H174" t="n">
         <v>71653.33333333333</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6851,22 +7435,21 @@
         <v>19.5372</v>
       </c>
       <c r="G175" t="n">
+        <v>70366.66666666667</v>
+      </c>
+      <c r="H175" t="n">
         <v>71608.33333333333</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6890,22 +7473,21 @@
         <v>0.3684</v>
       </c>
       <c r="G176" t="n">
+        <v>70350</v>
+      </c>
+      <c r="H176" t="n">
         <v>71559.16666666667</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6929,22 +7511,21 @@
         <v>2.9186</v>
       </c>
       <c r="G177" t="n">
+        <v>70280</v>
+      </c>
+      <c r="H177" t="n">
         <v>71495.83333333333</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6968,22 +7549,21 @@
         <v>15.8177</v>
       </c>
       <c r="G178" t="n">
+        <v>70220</v>
+      </c>
+      <c r="H178" t="n">
         <v>71438.33333333333</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7007,22 +7587,21 @@
         <v>10.1456</v>
       </c>
       <c r="G179" t="n">
+        <v>70170</v>
+      </c>
+      <c r="H179" t="n">
         <v>71367.5</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7046,22 +7625,21 @@
         <v>12.4901</v>
       </c>
       <c r="G180" t="n">
+        <v>70126.66666666667</v>
+      </c>
+      <c r="H180" t="n">
         <v>71297.5</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7085,22 +7663,21 @@
         <v>0.0152</v>
       </c>
       <c r="G181" t="n">
+        <v>70103.33333333333</v>
+      </c>
+      <c r="H181" t="n">
         <v>71231.66666666667</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7124,22 +7701,21 @@
         <v>49.7857</v>
       </c>
       <c r="G182" t="n">
+        <v>70056.66666666667</v>
+      </c>
+      <c r="H182" t="n">
         <v>71164.16666666667</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7163,22 +7739,21 @@
         <v>1.0045</v>
       </c>
       <c r="G183" t="n">
+        <v>70020</v>
+      </c>
+      <c r="H183" t="n">
         <v>71096.66666666667</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7202,22 +7777,21 @@
         <v>0.7069</v>
       </c>
       <c r="G184" t="n">
+        <v>69986.66666666667</v>
+      </c>
+      <c r="H184" t="n">
         <v>71039.16666666667</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7241,22 +7815,21 @@
         <v>69.3711</v>
       </c>
       <c r="G185" t="n">
+        <v>69986.66666666667</v>
+      </c>
+      <c r="H185" t="n">
         <v>70981.66666666667</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7280,22 +7853,21 @@
         <v>1.955</v>
       </c>
       <c r="G186" t="n">
+        <v>69966.66666666667</v>
+      </c>
+      <c r="H186" t="n">
         <v>70924.16666666667</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7319,22 +7891,21 @@
         <v>0.7292</v>
       </c>
       <c r="G187" t="n">
+        <v>69943.33333333333</v>
+      </c>
+      <c r="H187" t="n">
         <v>70872.5</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7358,22 +7929,21 @@
         <v>0.9028</v>
       </c>
       <c r="G188" t="n">
+        <v>69903.33333333333</v>
+      </c>
+      <c r="H188" t="n">
         <v>70820</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7397,22 +7967,21 @@
         <v>0.5021</v>
       </c>
       <c r="G189" t="n">
+        <v>69840</v>
+      </c>
+      <c r="H189" t="n">
         <v>70768.33333333333</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7436,22 +8005,21 @@
         <v>1.5156</v>
       </c>
       <c r="G190" t="n">
+        <v>69773.33333333333</v>
+      </c>
+      <c r="H190" t="n">
         <v>70726.66666666667</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7475,22 +8043,21 @@
         <v>0.4781</v>
       </c>
       <c r="G191" t="n">
+        <v>69730</v>
+      </c>
+      <c r="H191" t="n">
         <v>70676.66666666667</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7514,22 +8081,21 @@
         <v>1.5018</v>
       </c>
       <c r="G192" t="n">
+        <v>69743.33333333333</v>
+      </c>
+      <c r="H192" t="n">
         <v>70630.83333333333</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7553,22 +8119,21 @@
         <v>6.9383</v>
       </c>
       <c r="G193" t="n">
+        <v>69756.66666666667</v>
+      </c>
+      <c r="H193" t="n">
         <v>70593.33333333333</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7592,22 +8157,21 @@
         <v>2</v>
       </c>
       <c r="G194" t="n">
+        <v>69816.66666666667</v>
+      </c>
+      <c r="H194" t="n">
         <v>70559.16666666667</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7631,22 +8195,21 @@
         <v>1</v>
       </c>
       <c r="G195" t="n">
+        <v>69913.33333333333</v>
+      </c>
+      <c r="H195" t="n">
         <v>70547.5</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7670,22 +8233,21 @@
         <v>0.6128</v>
       </c>
       <c r="G196" t="n">
+        <v>70010</v>
+      </c>
+      <c r="H196" t="n">
         <v>70538.33333333333</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7709,22 +8271,21 @@
         <v>1.143</v>
       </c>
       <c r="G197" t="n">
+        <v>70140</v>
+      </c>
+      <c r="H197" t="n">
         <v>70533.33333333333</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7748,22 +8309,21 @@
         <v>2.0319</v>
       </c>
       <c r="G198" t="n">
+        <v>70243.33333333333</v>
+      </c>
+      <c r="H198" t="n">
         <v>70535.83333333333</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7787,22 +8347,21 @@
         <v>0.0818</v>
       </c>
       <c r="G199" t="n">
+        <v>70310</v>
+      </c>
+      <c r="H199" t="n">
         <v>70538.33333333333</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7826,22 +8385,21 @@
         <v>2.243394109396</v>
       </c>
       <c r="G200" t="n">
+        <v>70396.66666666667</v>
+      </c>
+      <c r="H200" t="n">
         <v>70547.5</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7865,22 +8423,21 @@
         <v>7.3226</v>
       </c>
       <c r="G201" t="n">
+        <v>70443.33333333333</v>
+      </c>
+      <c r="H201" t="n">
         <v>70510.83333333333</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7904,22 +8461,21 @@
         <v>1.0741</v>
       </c>
       <c r="G202" t="n">
+        <v>70493.33333333333</v>
+      </c>
+      <c r="H202" t="n">
         <v>70494.16666666667</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7943,22 +8499,21 @@
         <v>63.297901539538</v>
       </c>
       <c r="G203" t="n">
+        <v>70606.66666666667</v>
+      </c>
+      <c r="H203" t="n">
         <v>70507.5</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7982,22 +8537,21 @@
         <v>0.1595</v>
       </c>
       <c r="G204" t="n">
+        <v>70710</v>
+      </c>
+      <c r="H204" t="n">
         <v>70504.16666666667</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8021,22 +8575,21 @@
         <v>0.6766</v>
       </c>
       <c r="G205" t="n">
+        <v>70776.66666666667</v>
+      </c>
+      <c r="H205" t="n">
         <v>70502.5</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8060,22 +8613,21 @@
         <v>1.4751</v>
       </c>
       <c r="G206" t="n">
+        <v>70863.33333333333</v>
+      </c>
+      <c r="H206" t="n">
         <v>70484.16666666667</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8099,22 +8651,21 @@
         <v>1</v>
       </c>
       <c r="G207" t="n">
+        <v>70953.33333333333</v>
+      </c>
+      <c r="H207" t="n">
         <v>70480.83333333333</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8138,22 +8689,21 @@
         <v>3.4503</v>
       </c>
       <c r="G208" t="n">
+        <v>71043.33333333333</v>
+      </c>
+      <c r="H208" t="n">
         <v>70480.83333333333</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8177,22 +8727,21 @@
         <v>4.5</v>
       </c>
       <c r="G209" t="n">
+        <v>71070</v>
+      </c>
+      <c r="H209" t="n">
         <v>70475</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8216,22 +8765,21 @@
         <v>3.0333</v>
       </c>
       <c r="G210" t="n">
+        <v>71056.66666666667</v>
+      </c>
+      <c r="H210" t="n">
         <v>70468.33333333333</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8255,22 +8803,21 @@
         <v>66.3468</v>
       </c>
       <c r="G211" t="n">
+        <v>71016.66666666667</v>
+      </c>
+      <c r="H211" t="n">
         <v>70466.66666666667</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8294,22 +8841,21 @@
         <v>0.0141</v>
       </c>
       <c r="G212" t="n">
+        <v>70996.66666666667</v>
+      </c>
+      <c r="H212" t="n">
         <v>70469.16666666667</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8333,22 +8879,21 @@
         <v>0.0143</v>
       </c>
       <c r="G213" t="n">
+        <v>70956.66666666667</v>
+      </c>
+      <c r="H213" t="n">
         <v>70466.66666666667</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8372,22 +8917,21 @@
         <v>1</v>
       </c>
       <c r="G214" t="n">
+        <v>70953.33333333333</v>
+      </c>
+      <c r="H214" t="n">
         <v>70464.16666666667</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8411,22 +8955,21 @@
         <v>0.990806223479</v>
       </c>
       <c r="G215" t="n">
+        <v>70913.33333333333</v>
+      </c>
+      <c r="H215" t="n">
         <v>70457.5</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8450,22 +8993,21 @@
         <v>0.0143</v>
       </c>
       <c r="G216" t="n">
+        <v>70890</v>
+      </c>
+      <c r="H216" t="n">
         <v>70444.16666666667</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8489,22 +9031,21 @@
         <v>41.3537</v>
       </c>
       <c r="G217" t="n">
+        <v>70846.66666666667</v>
+      </c>
+      <c r="H217" t="n">
         <v>70431.66666666667</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8528,22 +9069,21 @@
         <v>0.803</v>
       </c>
       <c r="G218" t="n">
+        <v>70793.33333333333</v>
+      </c>
+      <c r="H218" t="n">
         <v>70429.16666666667</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8567,22 +9107,21 @@
         <v>1.1896</v>
       </c>
       <c r="G219" t="n">
+        <v>70743.33333333333</v>
+      </c>
+      <c r="H219" t="n">
         <v>70420</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8606,22 +9145,21 @@
         <v>1.5034</v>
       </c>
       <c r="G220" t="n">
+        <v>70730</v>
+      </c>
+      <c r="H220" t="n">
         <v>70411.66666666667</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8645,22 +9183,21 @@
         <v>1.2968</v>
       </c>
       <c r="G221" t="n">
+        <v>70673.33333333333</v>
+      </c>
+      <c r="H221" t="n">
         <v>70404.16666666667</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8684,22 +9221,21 @@
         <v>10.675</v>
       </c>
       <c r="G222" t="n">
+        <v>70633.33333333333</v>
+      </c>
+      <c r="H222" t="n">
         <v>70402.5</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8723,22 +9259,21 @@
         <v>83.25230000000001</v>
       </c>
       <c r="G223" t="n">
+        <v>70600</v>
+      </c>
+      <c r="H223" t="n">
         <v>70405</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8762,22 +9297,21 @@
         <v>51.0472</v>
       </c>
       <c r="G224" t="n">
+        <v>70613.33333333333</v>
+      </c>
+      <c r="H224" t="n">
         <v>70417.5</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8801,22 +9335,21 @@
         <v>1.5012</v>
       </c>
       <c r="G225" t="n">
+        <v>70653.33333333333</v>
+      </c>
+      <c r="H225" t="n">
         <v>70437.5</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8840,22 +9373,21 @@
         <v>14.3351</v>
       </c>
       <c r="G226" t="n">
+        <v>70706.66666666667</v>
+      </c>
+      <c r="H226" t="n">
         <v>70459.16666666667</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8879,22 +9411,21 @@
         <v>0.36</v>
       </c>
       <c r="G227" t="n">
+        <v>70750</v>
+      </c>
+      <c r="H227" t="n">
         <v>70485.83333333333</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8918,22 +9449,21 @@
         <v>0.9583</v>
       </c>
       <c r="G228" t="n">
+        <v>70810</v>
+      </c>
+      <c r="H228" t="n">
         <v>70507.5</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8957,22 +9487,21 @@
         <v>23.4117</v>
       </c>
       <c r="G229" t="n">
+        <v>70863.33333333333</v>
+      </c>
+      <c r="H229" t="n">
         <v>70528.33333333333</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8996,22 +9525,21 @@
         <v>1.1749</v>
       </c>
       <c r="G230" t="n">
+        <v>70946.66666666667</v>
+      </c>
+      <c r="H230" t="n">
         <v>70560.83333333333</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9035,22 +9563,21 @@
         <v>7.0013</v>
       </c>
       <c r="G231" t="n">
+        <v>71056.66666666667</v>
+      </c>
+      <c r="H231" t="n">
         <v>70589.16666666667</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9074,22 +9601,21 @@
         <v>2.4049</v>
       </c>
       <c r="G232" t="n">
+        <v>71196.66666666667</v>
+      </c>
+      <c r="H232" t="n">
         <v>70620</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9113,22 +9639,21 @@
         <v>0.575</v>
       </c>
       <c r="G233" t="n">
+        <v>71300</v>
+      </c>
+      <c r="H233" t="n">
         <v>70650.83333333333</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9152,22 +9677,21 @@
         <v>3.8501</v>
       </c>
       <c r="G234" t="n">
+        <v>71423.33333333333</v>
+      </c>
+      <c r="H234" t="n">
         <v>70679.16666666667</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9191,22 +9715,21 @@
         <v>2</v>
       </c>
       <c r="G235" t="n">
+        <v>71556.66666666667</v>
+      </c>
+      <c r="H235" t="n">
         <v>70709.16666666667</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9230,22 +9753,21 @@
         <v>1.6999</v>
       </c>
       <c r="G236" t="n">
+        <v>71720</v>
+      </c>
+      <c r="H236" t="n">
         <v>70746.66666666667</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9269,22 +9791,21 @@
         <v>4</v>
       </c>
       <c r="G237" t="n">
+        <v>71906.66666666667</v>
+      </c>
+      <c r="H237" t="n">
         <v>70809.16666666667</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9308,22 +9829,21 @@
         <v>5.0999</v>
       </c>
       <c r="G238" t="n">
+        <v>72113.33333333333</v>
+      </c>
+      <c r="H238" t="n">
         <v>70878.33333333333</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9347,22 +9867,21 @@
         <v>0.013605442176</v>
       </c>
       <c r="G239" t="n">
+        <v>72276.66666666667</v>
+      </c>
+      <c r="H239" t="n">
         <v>70944.16666666667</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9386,22 +9905,21 @@
         <v>8</v>
       </c>
       <c r="G240" t="n">
+        <v>72483.33333333333</v>
+      </c>
+      <c r="H240" t="n">
         <v>71026.66666666667</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9425,22 +9943,21 @@
         <v>0.18</v>
       </c>
       <c r="G241" t="n">
+        <v>72683.33333333333</v>
+      </c>
+      <c r="H241" t="n">
         <v>71104.16666666667</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9464,22 +9981,23 @@
         <v>10.29</v>
       </c>
       <c r="G242" t="n">
+        <v>72826.66666666667</v>
+      </c>
+      <c r="H242" t="n">
         <v>71178.33333333333</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
-        <v>1</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9501,18 +10019,21 @@
         <v>11.2964</v>
       </c>
       <c r="G243" t="n">
+        <v>72966.66666666667</v>
+      </c>
+      <c r="H243" t="n">
         <v>71244.16666666667</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
-        <v>1</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9536,18 +10057,21 @@
         <v>9.050800000000001</v>
       </c>
       <c r="G244" t="n">
+        <v>73090</v>
+      </c>
+      <c r="H244" t="n">
         <v>71304.16666666667</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9571,18 +10095,21 @@
         <v>1.3829</v>
       </c>
       <c r="G245" t="n">
+        <v>73206.66666666667</v>
+      </c>
+      <c r="H245" t="n">
         <v>71365.83333333333</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9606,18 +10133,21 @@
         <v>0.7442</v>
       </c>
       <c r="G246" t="n">
+        <v>73323.33333333333</v>
+      </c>
+      <c r="H246" t="n">
         <v>71428.33333333333</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9641,18 +10171,21 @@
         <v>3.63</v>
       </c>
       <c r="G247" t="n">
+        <v>73453.33333333333</v>
+      </c>
+      <c r="H247" t="n">
         <v>71497.5</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9676,18 +10209,21 @@
         <v>2.0179</v>
       </c>
       <c r="G248" t="n">
+        <v>73573.33333333333</v>
+      </c>
+      <c r="H248" t="n">
         <v>71568.33333333333</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9711,18 +10247,21 @@
         <v>1.123</v>
       </c>
       <c r="G249" t="n">
+        <v>73710</v>
+      </c>
+      <c r="H249" t="n">
         <v>71646.66666666667</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9746,18 +10285,21 @@
         <v>0.3466</v>
       </c>
       <c r="G250" t="n">
+        <v>73833.33333333333</v>
+      </c>
+      <c r="H250" t="n">
         <v>71724.16666666667</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9781,18 +10323,21 @@
         <v>0.013422818791</v>
       </c>
       <c r="G251" t="n">
+        <v>73953.33333333333</v>
+      </c>
+      <c r="H251" t="n">
         <v>71802.5</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9816,18 +10361,21 @@
         <v>1.5959</v>
       </c>
       <c r="G252" t="n">
+        <v>73993.33333333333</v>
+      </c>
+      <c r="H252" t="n">
         <v>71871.66666666667</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9851,18 +10399,21 @@
         <v>0.4643</v>
       </c>
       <c r="G253" t="n">
+        <v>74006.66666666667</v>
+      </c>
+      <c r="H253" t="n">
         <v>71940.83333333333</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9886,18 +10437,21 @@
         <v>2.592240622884</v>
       </c>
       <c r="G254" t="n">
+        <v>73996.66666666667</v>
+      </c>
+      <c r="H254" t="n">
         <v>71989.16666666667</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9921,18 +10475,21 @@
         <v>0.3684</v>
       </c>
       <c r="G255" t="n">
+        <v>73916.66666666667</v>
+      </c>
+      <c r="H255" t="n">
         <v>72027.5</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9956,18 +10513,21 @@
         <v>9.8497</v>
       </c>
       <c r="G256" t="n">
+        <v>73800</v>
+      </c>
+      <c r="H256" t="n">
         <v>72051.66666666667</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9991,18 +10551,21 @@
         <v>0.6525</v>
       </c>
       <c r="G257" t="n">
+        <v>73750</v>
+      </c>
+      <c r="H257" t="n">
         <v>72080.83333333333</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10026,18 +10589,21 @@
         <v>7.4825</v>
       </c>
       <c r="G258" t="n">
+        <v>73716.66666666667</v>
+      </c>
+      <c r="H258" t="n">
         <v>72112.5</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10061,18 +10627,21 @@
         <v>17.7853</v>
       </c>
       <c r="G259" t="n">
+        <v>73723.33333333333</v>
+      </c>
+      <c r="H259" t="n">
         <v>72157.5</v>
       </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10096,18 +10665,21 @@
         <v>26.1784</v>
       </c>
       <c r="G260" t="n">
+        <v>73746.66666666667</v>
+      </c>
+      <c r="H260" t="n">
         <v>72203.33333333333</v>
       </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10131,18 +10703,21 @@
         <v>7.4587</v>
       </c>
       <c r="G261" t="n">
+        <v>73736.66666666667</v>
+      </c>
+      <c r="H261" t="n">
         <v>72251.66666666667</v>
       </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10166,18 +10741,21 @@
         <v>14.7985</v>
       </c>
       <c r="G262" t="n">
+        <v>73700</v>
+      </c>
+      <c r="H262" t="n">
         <v>72299.16666666667</v>
       </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10201,18 +10779,21 @@
         <v>0.1762</v>
       </c>
       <c r="G263" t="n">
+        <v>73676.66666666667</v>
+      </c>
+      <c r="H263" t="n">
         <v>72335.83333333333</v>
       </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10236,18 +10817,21 @@
         <v>16.4</v>
       </c>
       <c r="G264" t="n">
+        <v>73626.66666666667</v>
+      </c>
+      <c r="H264" t="n">
         <v>72375.83333333333</v>
       </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10271,18 +10855,21 @@
         <v>0.2</v>
       </c>
       <c r="G265" t="n">
+        <v>73553.33333333333</v>
+      </c>
+      <c r="H265" t="n">
         <v>72418.33333333333</v>
       </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10306,18 +10893,21 @@
         <v>0.0137</v>
       </c>
       <c r="G266" t="n">
+        <v>73473.33333333333</v>
+      </c>
+      <c r="H266" t="n">
         <v>72455</v>
       </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10341,18 +10931,21 @@
         <v>2.5353</v>
       </c>
       <c r="G267" t="n">
+        <v>73436.66666666667</v>
+      </c>
+      <c r="H267" t="n">
         <v>72492.5</v>
       </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10376,18 +10969,21 @@
         <v>0.7703</v>
       </c>
       <c r="G268" t="n">
+        <v>73380</v>
+      </c>
+      <c r="H268" t="n">
         <v>72525</v>
       </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10411,18 +11007,21 @@
         <v>2.3622</v>
       </c>
       <c r="G269" t="n">
+        <v>73386.66666666667</v>
+      </c>
+      <c r="H269" t="n">
         <v>72568.33333333333</v>
       </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10446,18 +11045,21 @@
         <v>0.4622</v>
       </c>
       <c r="G270" t="n">
+        <v>73416.66666666667</v>
+      </c>
+      <c r="H270" t="n">
         <v>72617.5</v>
       </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
+      <c r="M270" t="inlineStr"/>
+      <c r="N270" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10481,18 +11083,21 @@
         <v>2.3055</v>
       </c>
       <c r="G271" t="n">
+        <v>73490</v>
+      </c>
+      <c r="H271" t="n">
         <v>72670</v>
       </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
+      <c r="M271" t="inlineStr"/>
+      <c r="N271" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10516,18 +11121,21 @@
         <v>0.0137</v>
       </c>
       <c r="G272" t="n">
+        <v>73493.33333333333</v>
+      </c>
+      <c r="H272" t="n">
         <v>72705</v>
       </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
+      <c r="M272" t="inlineStr"/>
+      <c r="N272" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10551,18 +11159,21 @@
         <v>0.0563</v>
       </c>
       <c r="G273" t="n">
+        <v>73490</v>
+      </c>
+      <c r="H273" t="n">
         <v>72745.83333333333</v>
       </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
       <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
+      <c r="M273" t="inlineStr"/>
+      <c r="N273" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10586,18 +11197,21 @@
         <v>9.853199999999999</v>
       </c>
       <c r="G274" t="n">
+        <v>73490</v>
+      </c>
+      <c r="H274" t="n">
         <v>72791.66666666667</v>
       </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
       <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
+      <c r="M274" t="inlineStr"/>
+      <c r="N274" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10621,18 +11235,21 @@
         <v>20</v>
       </c>
       <c r="G275" t="n">
+        <v>73430</v>
+      </c>
+      <c r="H275" t="n">
         <v>72832.5</v>
       </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
       <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
+      <c r="M275" t="inlineStr"/>
+      <c r="N275" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10656,18 +11273,21 @@
         <v>1193.4439</v>
       </c>
       <c r="G276" t="n">
+        <v>73536.66666666667</v>
+      </c>
+      <c r="H276" t="n">
         <v>72913.33333333333</v>
       </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
       <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
+      <c r="M276" t="inlineStr"/>
+      <c r="N276" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10691,18 +11311,21 @@
         <v>20.0927</v>
       </c>
       <c r="G277" t="n">
+        <v>73546.66666666667</v>
+      </c>
+      <c r="H277" t="n">
         <v>72974.16666666667</v>
       </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
       <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
+      <c r="M277" t="inlineStr"/>
+      <c r="N277" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10726,18 +11349,21 @@
         <v>26.9745</v>
       </c>
       <c r="G278" t="n">
+        <v>73553.33333333333</v>
+      </c>
+      <c r="H278" t="n">
         <v>73025.83333333333</v>
       </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
       <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
+      <c r="M278" t="inlineStr"/>
+      <c r="N278" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10761,18 +11387,21 @@
         <v>21.5009</v>
       </c>
       <c r="G279" t="n">
+        <v>73576.66666666667</v>
+      </c>
+      <c r="H279" t="n">
         <v>73084.16666666667</v>
       </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
       <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
+      <c r="M279" t="inlineStr"/>
+      <c r="N279" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10796,18 +11425,21 @@
         <v>2.5729</v>
       </c>
       <c r="G280" t="n">
+        <v>73590</v>
+      </c>
+      <c r="H280" t="n">
         <v>73133.33333333333</v>
       </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
       <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
+      <c r="M280" t="inlineStr"/>
+      <c r="N280" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10831,18 +11463,21 @@
         <v>0.678886625933</v>
       </c>
       <c r="G281" t="n">
+        <v>73613.33333333333</v>
+      </c>
+      <c r="H281" t="n">
         <v>73190</v>
       </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
       <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
+      <c r="M281" t="inlineStr"/>
+      <c r="N281" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10866,18 +11501,21 @@
         <v>10.909613374067</v>
       </c>
       <c r="G282" t="n">
+        <v>73613.33333333333</v>
+      </c>
+      <c r="H282" t="n">
         <v>73237.5</v>
       </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
       <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
+      <c r="M282" t="inlineStr"/>
+      <c r="N282" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10901,18 +11539,21 @@
         <v>5.327</v>
       </c>
       <c r="G283" t="n">
+        <v>73753.33333333333</v>
+      </c>
+      <c r="H283" t="n">
         <v>73313.33333333333</v>
       </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
       <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
+      <c r="M283" t="inlineStr"/>
+      <c r="N283" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10936,18 +11577,21 @@
         <v>16.0988</v>
       </c>
       <c r="G284" t="n">
+        <v>73816.66666666667</v>
+      </c>
+      <c r="H284" t="n">
         <v>73369.16666666667</v>
       </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
       <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
+      <c r="M284" t="inlineStr"/>
+      <c r="N284" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10971,18 +11615,21 @@
         <v>12.9649</v>
       </c>
       <c r="G285" t="n">
+        <v>73856.66666666667</v>
+      </c>
+      <c r="H285" t="n">
         <v>73418.33333333333</v>
       </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
       <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
+      <c r="M285" t="inlineStr"/>
+      <c r="N285" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11006,18 +11653,21 @@
         <v>12.2035</v>
       </c>
       <c r="G286" t="n">
+        <v>73916.66666666667</v>
+      </c>
+      <c r="H286" t="n">
         <v>73472.5</v>
       </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
       <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
+      <c r="M286" t="inlineStr"/>
+      <c r="N286" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11041,18 +11691,21 @@
         <v>1</v>
       </c>
       <c r="G287" t="n">
+        <v>74033.33333333333</v>
+      </c>
+      <c r="H287" t="n">
         <v>73525.83333333333</v>
       </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
       <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
+      <c r="M287" t="inlineStr"/>
+      <c r="N287" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11076,18 +11729,21 @@
         <v>11</v>
       </c>
       <c r="G288" t="n">
+        <v>74140</v>
+      </c>
+      <c r="H288" t="n">
         <v>73578.33333333333</v>
       </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>0</v>
+      </c>
       <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
+      <c r="M288" t="inlineStr"/>
+      <c r="N288" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11111,18 +11767,21 @@
         <v>18</v>
       </c>
       <c r="G289" t="n">
+        <v>74226.66666666667</v>
+      </c>
+      <c r="H289" t="n">
         <v>73632.5</v>
       </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>0</v>
+      </c>
       <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
+      <c r="M289" t="inlineStr"/>
+      <c r="N289" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11146,18 +11805,401 @@
         <v>10.2976</v>
       </c>
       <c r="G290" t="n">
+        <v>74333.33333333333</v>
+      </c>
+      <c r="H290" t="n">
         <v>73679.16666666667</v>
       </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
       <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
+      <c r="M290" t="inlineStr"/>
+      <c r="N290" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>74750</v>
+      </c>
+      <c r="C291" t="n">
+        <v>74350</v>
+      </c>
+      <c r="D291" t="n">
+        <v>74750</v>
+      </c>
+      <c r="E291" t="n">
+        <v>74350</v>
+      </c>
+      <c r="F291" t="n">
+        <v>19.0097</v>
+      </c>
+      <c r="G291" t="n">
+        <v>74276.66666666667</v>
+      </c>
+      <c r="H291" t="n">
+        <v>73718.33333333333</v>
+      </c>
+      <c r="I291" t="n">
+        <v>0</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="inlineStr"/>
+      <c r="M291" t="inlineStr"/>
+      <c r="N291" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>74500</v>
+      </c>
+      <c r="C292" t="n">
+        <v>74550</v>
+      </c>
+      <c r="D292" t="n">
+        <v>74550</v>
+      </c>
+      <c r="E292" t="n">
+        <v>74500</v>
+      </c>
+      <c r="F292" t="n">
+        <v>6.159973172367</v>
+      </c>
+      <c r="G292" t="n">
+        <v>74330</v>
+      </c>
+      <c r="H292" t="n">
+        <v>73757.5</v>
+      </c>
+      <c r="I292" t="n">
+        <v>0</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="inlineStr"/>
+      <c r="M292" t="inlineStr"/>
+      <c r="N292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>74100</v>
+      </c>
+      <c r="C293" t="n">
+        <v>74100</v>
+      </c>
+      <c r="D293" t="n">
+        <v>74100</v>
+      </c>
+      <c r="E293" t="n">
+        <v>74100</v>
+      </c>
+      <c r="F293" t="n">
+        <v>1.9448</v>
+      </c>
+      <c r="G293" t="n">
+        <v>74353.33333333333</v>
+      </c>
+      <c r="H293" t="n">
+        <v>73789.16666666667</v>
+      </c>
+      <c r="I293" t="n">
+        <v>0</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0</v>
+      </c>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr"/>
+      <c r="M293" t="inlineStr"/>
+      <c r="N293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>74500</v>
+      </c>
+      <c r="C294" t="n">
+        <v>74500</v>
+      </c>
+      <c r="D294" t="n">
+        <v>74500</v>
+      </c>
+      <c r="E294" t="n">
+        <v>74500</v>
+      </c>
+      <c r="F294" t="n">
+        <v>0.335570469798</v>
+      </c>
+      <c r="G294" t="n">
+        <v>74383.33333333333</v>
+      </c>
+      <c r="H294" t="n">
+        <v>73824.16666666667</v>
+      </c>
+      <c r="I294" t="n">
+        <v>0</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0</v>
+      </c>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr"/>
+      <c r="M294" t="inlineStr"/>
+      <c r="N294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>74050</v>
+      </c>
+      <c r="C295" t="n">
+        <v>74000</v>
+      </c>
+      <c r="D295" t="n">
+        <v>74050</v>
+      </c>
+      <c r="E295" t="n">
+        <v>74000</v>
+      </c>
+      <c r="F295" t="n">
+        <v>1.9018</v>
+      </c>
+      <c r="G295" t="n">
+        <v>74413.33333333333</v>
+      </c>
+      <c r="H295" t="n">
+        <v>73847.5</v>
+      </c>
+      <c r="I295" t="n">
+        <v>0</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0</v>
+      </c>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="inlineStr"/>
+      <c r="M295" t="inlineStr"/>
+      <c r="N295" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>74050</v>
+      </c>
+      <c r="C296" t="n">
+        <v>74000</v>
+      </c>
+      <c r="D296" t="n">
+        <v>74050</v>
+      </c>
+      <c r="E296" t="n">
+        <v>74000</v>
+      </c>
+      <c r="F296" t="n">
+        <v>4.1013</v>
+      </c>
+      <c r="G296" t="n">
+        <v>74436.66666666667</v>
+      </c>
+      <c r="H296" t="n">
+        <v>73869.16666666667</v>
+      </c>
+      <c r="I296" t="n">
+        <v>0</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0</v>
+      </c>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
+      <c r="M296" t="inlineStr"/>
+      <c r="N296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>74400</v>
+      </c>
+      <c r="C297" t="n">
+        <v>73200</v>
+      </c>
+      <c r="D297" t="n">
+        <v>74500</v>
+      </c>
+      <c r="E297" t="n">
+        <v>73200</v>
+      </c>
+      <c r="F297" t="n">
+        <v>86.66739449664399</v>
+      </c>
+      <c r="G297" t="n">
+        <v>74426.66666666667</v>
+      </c>
+      <c r="H297" t="n">
+        <v>73867.5</v>
+      </c>
+      <c r="I297" t="n">
+        <v>0</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="inlineStr"/>
+      <c r="M297" t="inlineStr"/>
+      <c r="N297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>73350</v>
+      </c>
+      <c r="C298" t="n">
+        <v>73350</v>
+      </c>
+      <c r="D298" t="n">
+        <v>73350</v>
+      </c>
+      <c r="E298" t="n">
+        <v>73350</v>
+      </c>
+      <c r="F298" t="n">
+        <v>1.1095</v>
+      </c>
+      <c r="G298" t="n">
+        <v>74306.66666666667</v>
+      </c>
+      <c r="H298" t="n">
+        <v>73861.66666666667</v>
+      </c>
+      <c r="I298" t="n">
+        <v>0</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="inlineStr"/>
+      <c r="M298" t="inlineStr"/>
+      <c r="N298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>73800</v>
+      </c>
+      <c r="C299" t="n">
+        <v>73800</v>
+      </c>
+      <c r="D299" t="n">
+        <v>73800</v>
+      </c>
+      <c r="E299" t="n">
+        <v>73800</v>
+      </c>
+      <c r="F299" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G299" t="n">
+        <v>74266.66666666667</v>
+      </c>
+      <c r="H299" t="n">
+        <v>73866.66666666667</v>
+      </c>
+      <c r="I299" t="n">
+        <v>0</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="inlineStr"/>
+      <c r="M299" t="inlineStr"/>
+      <c r="N299" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>73800</v>
+      </c>
+      <c r="C300" t="n">
+        <v>73750</v>
+      </c>
+      <c r="D300" t="n">
+        <v>73800</v>
+      </c>
+      <c r="E300" t="n">
+        <v>73750</v>
+      </c>
+      <c r="F300" t="n">
+        <v>4.883</v>
+      </c>
+      <c r="G300" t="n">
+        <v>74226.66666666667</v>
+      </c>
+      <c r="H300" t="n">
+        <v>73854.16666666667</v>
+      </c>
+      <c r="I300" t="n">
+        <v>0</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="inlineStr"/>
+      <c r="M300" t="inlineStr"/>
+      <c r="N300" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest XMR.xlsx
+++ b/BackTest/2020-01-16 BackTest XMR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-764.871549227374</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-764.271549227374</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>66800</v>
@@ -523,7 +523,7 @@
         <v>-764.352549227374</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>66850</v>
@@ -562,7 +562,7 @@
         <v>-837.780549227374</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>66600</v>
@@ -601,9 +601,11 @@
         <v>-837.730549227374</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>66200</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
@@ -638,9 +640,11 @@
         <v>-838.8802492273741</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>66500</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
@@ -675,9 +679,11 @@
         <v>-838.8802492273741</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>66450</v>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
@@ -712,9 +718,11 @@
         <v>-838.930249227374</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>66450</v>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -749,9 +757,11 @@
         <v>-839.2108492273741</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>66300</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -786,7 +796,7 @@
         <v>-840.3302492273741</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>66150</v>
@@ -825,9 +835,11 @@
         <v>-814.2611492273741</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>65850</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -862,7 +874,7 @@
         <v>-814.2611492273741</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>66500</v>
@@ -901,7 +913,7 @@
         <v>-826.297549227374</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>66500</v>
@@ -940,7 +952,7 @@
         <v>-827.1252492273741</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>66450</v>
@@ -979,7 +991,7 @@
         <v>-824.7917492273741</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>65900</v>
@@ -1018,7 +1030,7 @@
         <v>-774.4184492273741</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>66600</v>
@@ -1057,7 +1069,7 @@
         <v>-774.4184492273741</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>67000</v>
@@ -1096,7 +1108,7 @@
         <v>-774.2184492273741</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>67000</v>
@@ -1135,7 +1147,7 @@
         <v>-774.2184492273741</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>67300</v>
@@ -1174,7 +1186,7 @@
         <v>-797.167449227374</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>67300</v>
@@ -1213,7 +1225,7 @@
         <v>-796.509449227374</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>66900</v>
@@ -1252,7 +1264,7 @@
         <v>-795.444749227374</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>67050</v>
@@ -1291,7 +1303,7 @@
         <v>-795.444749227374</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>67550</v>
@@ -1330,7 +1342,7 @@
         <v>-794.2665492273741</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>67550</v>
@@ -1369,7 +1381,7 @@
         <v>-797.9879492273741</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>67600</v>
@@ -1408,7 +1420,7 @@
         <v>-800.1764492273741</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>67250</v>
@@ -1447,7 +1459,7 @@
         <v>-800.003149227374</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>67000</v>
@@ -1486,7 +1498,7 @@
         <v>-887.8376492273741</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>67500</v>
@@ -1525,7 +1537,7 @@
         <v>-877.1547492273741</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>67450</v>
@@ -1564,7 +1576,7 @@
         <v>-558.846349227374</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>67600</v>
@@ -1603,11 +1615,9 @@
         <v>-570.4177492273741</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>67750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1679,7 +1689,7 @@
         <v>-570.0607492273741</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>67500</v>
@@ -1718,7 +1728,7 @@
         <v>-571.3563492273742</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>67000</v>
@@ -1757,7 +1767,7 @@
         <v>-571.3563492273742</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>66750</v>
@@ -1796,7 +1806,7 @@
         <v>-571.2563492273741</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>66750</v>
@@ -1835,7 +1845,7 @@
         <v>-572.0513492273741</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>67100</v>
@@ -1874,7 +1884,7 @@
         <v>-568.8816492273741</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>67000</v>
@@ -1913,7 +1923,7 @@
         <v>-568.8816492273741</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>67500</v>
@@ -1952,7 +1962,7 @@
         <v>-568.8816492273741</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>67500</v>
@@ -1991,7 +2001,7 @@
         <v>-568.8816492273741</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>67500</v>
@@ -2030,7 +2040,7 @@
         <v>-568.8816492273741</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>67500</v>
@@ -2069,7 +2079,7 @@
         <v>-568.8816492273741</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>67500</v>
@@ -2108,7 +2118,7 @@
         <v>-568.8816492273741</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>67500</v>
@@ -2147,7 +2157,7 @@
         <v>-568.8816492273741</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>67500</v>
@@ -2186,7 +2196,7 @@
         <v>-574.8816492273741</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>67500</v>
@@ -2225,7 +2235,7 @@
         <v>-572.851849227374</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>66700</v>
@@ -2264,7 +2274,7 @@
         <v>-570.345049227374</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>66750</v>
@@ -2303,7 +2313,7 @@
         <v>-559.639049227374</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>67650</v>
@@ -2342,9 +2352,11 @@
         <v>-550.996349227374</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>67800</v>
+      </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2379,9 +2391,11 @@
         <v>-550.996349227374</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>67900</v>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2416,9 +2430,11 @@
         <v>-550.893549227374</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>67900</v>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2453,9 +2469,11 @@
         <v>-515.049749227374</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>67950</v>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -2490,9 +2508,11 @@
         <v>-513.049749227374</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>68000</v>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2527,7 +2547,7 @@
         <v>-513.049749227374</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>68500</v>
@@ -2566,7 +2586,7 @@
         <v>-503.020349227374</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>68500</v>
@@ -2605,7 +2625,7 @@
         <v>-503.020349227374</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>68950</v>
@@ -2644,7 +2664,7 @@
         <v>-503.020349227374</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>68950</v>
@@ -2683,11 +2703,9 @@
         <v>-499.967349227374</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>68950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -2722,11 +2740,9 @@
         <v>-475.063749227374</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>69050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
@@ -2761,11 +2777,9 @@
         <v>-428.700891879704</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>69450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -2800,11 +2814,9 @@
         <v>-439.020891879704</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>69750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2839,11 +2851,9 @@
         <v>-392.658091879704</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>68450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -2878,11 +2888,9 @@
         <v>-391.658091879704</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>68850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
@@ -2917,11 +2925,9 @@
         <v>-441.658091879704</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>69150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -2956,11 +2962,9 @@
         <v>-451.065791879704</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="n">
-        <v>68850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
@@ -2995,11 +2999,9 @@
         <v>-451.307791879704</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>68600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -3034,7 +3036,7 @@
         <v>-451.307791879704</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>68350</v>
@@ -3073,7 +3075,7 @@
         <v>-451.6677918797041</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>68350</v>
@@ -3112,11 +3114,9 @@
         <v>-454.084791879704</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="n">
-        <v>68300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -3151,11 +3151,9 @@
         <v>-422.632991879704</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>68250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
@@ -3190,11 +3188,9 @@
         <v>-422.632991879704</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="n">
-        <v>68300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
@@ -3229,11 +3225,9 @@
         <v>-422.632991879704</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>68300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -3268,11 +3262,9 @@
         <v>-423.3434918797041</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="n">
-        <v>68300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -3307,11 +3299,9 @@
         <v>-395.5517918797041</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="n">
-        <v>68100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -3346,11 +3336,9 @@
         <v>-398.097191879704</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>68300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3829,7 +3817,7 @@
         <v>-355.978391879704</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>68150</v>
@@ -3868,7 +3856,7 @@
         <v>-356.260091879704</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>68450</v>
@@ -3907,11 +3895,9 @@
         <v>-446.260091879704</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="n">
-        <v>68300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
@@ -3946,7 +3932,7 @@
         <v>-443.260091879704</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>68050</v>
@@ -3985,11 +3971,9 @@
         <v>-443.260091879704</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>68800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
@@ -4024,11 +4008,9 @@
         <v>-450.271091879704</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="n">
-        <v>68800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
@@ -4063,11 +4045,9 @@
         <v>53.39460812029597</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="n">
-        <v>68750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
@@ -4102,11 +4082,9 @@
         <v>-63.39989187970403</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>70000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
@@ -4141,11 +4119,9 @@
         <v>436.390508120296</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>69950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
@@ -4994,7 +4970,7 @@
         <v>133.2141086569989</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -5031,7 +5007,7 @@
         <v>267.9032086569989</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -5068,7 +5044,7 @@
         <v>241.3092086569989</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5105,7 +5081,7 @@
         <v>188.6710086569989</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5179,7 +5155,7 @@
         <v>133.9325086569989</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5253,7 +5229,7 @@
         <v>78.60520865699893</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5290,7 +5266,7 @@
         <v>78.87040865699892</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5327,7 +5303,7 @@
         <v>-300.4535913430011</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5475,7 +5451,7 @@
         <v>-75.39800747203407</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5512,18 +5488,16 @@
         <v>-76.81690747203406</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
@@ -5549,15 +5523,11 @@
         <v>-76.81690747203406</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5586,15 +5556,11 @@
         <v>-83.64210747203406</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5623,15 +5589,11 @@
         <v>-77.34850747203406</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5660,15 +5622,11 @@
         <v>-185.2988074720341</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5697,15 +5655,11 @@
         <v>-167.1138074720341</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5734,15 +5688,11 @@
         <v>-330.7032074720341</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5771,15 +5721,11 @@
         <v>-520.139307472034</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5808,15 +5754,11 @@
         <v>-522.401507472034</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5849,11 +5791,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5882,15 +5820,11 @@
         <v>-582.590007472034</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5919,15 +5853,11 @@
         <v>-588.7900074720341</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5960,11 +5890,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5997,11 +5923,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6034,11 +5956,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6067,15 +5985,11 @@
         <v>-461.270607472034</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6108,11 +6022,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6145,11 +6055,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6182,11 +6088,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6219,11 +6121,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6256,11 +6154,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6293,11 +6187,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6330,11 +6220,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6367,11 +6253,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6404,11 +6286,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6441,11 +6319,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6478,11 +6352,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6515,11 +6385,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6552,11 +6418,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6589,11 +6451,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6626,11 +6484,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6663,11 +6517,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6700,11 +6550,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6737,11 +6583,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6774,11 +6616,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6811,11 +6649,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6848,11 +6682,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6885,11 +6715,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6922,11 +6748,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6959,11 +6781,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6996,11 +6814,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7033,11 +6847,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7070,11 +6880,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7107,11 +6913,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7144,11 +6946,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7181,11 +6979,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7218,11 +7012,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7255,11 +7045,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7292,11 +7078,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7329,11 +7111,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7366,11 +7144,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7403,11 +7177,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7440,11 +7210,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7477,11 +7243,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7514,11 +7276,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7551,11 +7309,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7588,11 +7342,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7625,11 +7375,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7662,11 +7408,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7699,11 +7441,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7736,11 +7474,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7773,11 +7507,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7810,11 +7540,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7847,11 +7573,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7884,11 +7606,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7921,11 +7639,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7958,11 +7672,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7995,11 +7705,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8032,11 +7738,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8069,11 +7771,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8106,11 +7804,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8143,11 +7837,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8180,11 +7870,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8217,11 +7903,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8254,11 +7936,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8291,11 +7969,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8328,11 +8002,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8365,11 +8035,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8398,15 +8064,15 @@
         <v>-799.9444898706849</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>70850</v>
+      </c>
+      <c r="J213" t="n">
+        <v>70850</v>
+      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8438,10 +8104,12 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>70850</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L214" t="n">
@@ -8475,10 +8143,12 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>70850</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L215" t="n">
@@ -8513,11 +8183,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8550,11 +8216,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8587,11 +8249,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8624,11 +8282,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8661,11 +8315,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8698,11 +8348,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8731,13 +8377,15 @@
         <v>-859.1110939465809</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>70450</v>
+      </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L222" t="n">
@@ -8768,9 +8416,11 @@
         <v>-870.2645939465809</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>70300</v>
+      </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
@@ -8805,9 +8455,11 @@
         <v>-870.2645939465809</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>70200</v>
+      </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
@@ -8842,9 +8494,11 @@
         <v>-880.2645939465809</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>70200</v>
+      </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
@@ -8879,9 +8533,11 @@
         <v>-876.984593946581</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>70000</v>
+      </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
@@ -8916,9 +8572,11 @@
         <v>-891.595393946581</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>70300</v>
+      </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
@@ -8953,9 +8611,11 @@
         <v>-897.195393946581</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>70250</v>
+      </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
@@ -8990,9 +8650,11 @@
         <v>-895.3541939465811</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>70000</v>
+      </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
@@ -9027,9 +8689,11 @@
         <v>-893.701193946581</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>70300</v>
+      </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
@@ -9064,9 +8728,11 @@
         <v>-893.701193946581</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>70350</v>
+      </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
@@ -9101,9 +8767,11 @@
         <v>-893.2114939465811</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>70350</v>
+      </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
@@ -9138,9 +8806,11 @@
         <v>-873.6742939465811</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>70700</v>
+      </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
@@ -9175,9 +8845,11 @@
         <v>-874.042693946581</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>70800</v>
+      </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
@@ -9212,9 +8884,11 @@
         <v>-876.961293946581</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>70450</v>
+      </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
@@ -9249,9 +8923,11 @@
         <v>-876.961293946581</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>69550</v>
+      </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
@@ -9286,9 +8962,11 @@
         <v>-876.961293946581</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>69550</v>
+      </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
@@ -9323,9 +9001,11 @@
         <v>-876.961293946581</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>69550</v>
+      </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
@@ -9360,9 +9040,11 @@
         <v>-876.946093946581</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>69550</v>
+      </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
@@ -9397,9 +9079,11 @@
         <v>-926.731793946581</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>69850</v>
+      </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
@@ -9434,9 +9118,11 @@
         <v>-925.727293946581</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>69300</v>
+      </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
@@ -9471,9 +9157,11 @@
         <v>-925.727293946581</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>69750</v>
+      </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
@@ -9508,9 +9196,11 @@
         <v>-856.356193946581</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>69750</v>
+      </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
@@ -9545,9 +9235,11 @@
         <v>-856.356193946581</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>70000</v>
+      </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
@@ -9582,9 +9274,11 @@
         <v>-856.356193946581</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>70000</v>
+      </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
@@ -9619,9 +9313,11 @@
         <v>-857.258993946581</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>70000</v>
+      </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
@@ -9656,9 +9352,11 @@
         <v>-857.258993946581</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>69750</v>
+      </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
@@ -9693,9 +9391,11 @@
         <v>-855.743393946581</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>69750</v>
+      </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
@@ -9730,9 +9430,11 @@
         <v>-855.743393946581</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>69800</v>
+      </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
@@ -9767,9 +9469,11 @@
         <v>-857.245193946581</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>69800</v>
+      </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
@@ -9804,9 +9508,11 @@
         <v>-857.245193946581</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>69750</v>
+      </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
@@ -9841,9 +9547,11 @@
         <v>-855.245193946581</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>69750</v>
+      </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
@@ -9878,9 +9586,11 @@
         <v>-854.245193946581</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>70450</v>
+      </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
@@ -9915,9 +9625,11 @@
         <v>-853.632393946581</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>71000</v>
+      </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
@@ -9952,9 +9664,11 @@
         <v>-854.7753939465811</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>71300</v>
+      </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
@@ -9989,9 +9703,11 @@
         <v>-852.7434939465811</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>71250</v>
+      </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
@@ -10026,9 +9742,11 @@
         <v>-852.8252939465812</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>71300</v>
+      </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
@@ -10063,9 +9781,11 @@
         <v>-850.5818998371851</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>70750</v>
+      </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
@@ -10100,9 +9820,11 @@
         <v>-857.9044998371851</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>71300</v>
+      </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
@@ -10137,7 +9859,7 @@
         <v>-856.830399837185</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I260" t="n">
         <v>70700</v>
@@ -10176,9 +9898,11 @@
         <v>-793.5324982976471</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>70750</v>
+      </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
@@ -10213,9 +9937,11 @@
         <v>-793.691998297647</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>71450</v>
+      </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
@@ -10250,7 +9976,7 @@
         <v>-794.3685982976471</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>71300</v>
@@ -10289,7 +10015,7 @@
         <v>-792.8934982976471</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>70800</v>
@@ -10328,9 +10054,11 @@
         <v>-792.8934982976471</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>71100</v>
+      </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
@@ -10365,9 +10093,11 @@
         <v>-792.8934982976471</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>71100</v>
+      </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
@@ -10402,9 +10132,11 @@
         <v>-797.3934982976471</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>71100</v>
+      </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
@@ -10439,9 +10171,11 @@
         <v>-800.4267982976471</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>70850</v>
+      </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
@@ -10476,9 +10210,11 @@
         <v>-866.7735982976471</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>70800</v>
+      </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
@@ -10513,7 +10249,7 @@
         <v>-866.7594982976472</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>70700</v>
@@ -10552,7 +10288,7 @@
         <v>-866.7737982976472</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>70950</v>
@@ -10591,9 +10327,11 @@
         <v>-866.7737982976472</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>70700</v>
+      </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
@@ -10628,9 +10366,11 @@
         <v>-866.7737982976472</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>70700</v>
+      </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
@@ -10665,7 +10405,7 @@
         <v>-866.7880982976473</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I274" t="n">
         <v>70700</v>
@@ -10704,7 +10444,7 @@
         <v>-908.1417982976473</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I275" t="n">
         <v>70350</v>
@@ -10743,9 +10483,11 @@
         <v>-907.3387982976473</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>70100</v>
+      </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
@@ -10780,9 +10522,11 @@
         <v>-908.5283982976473</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>70650</v>
+      </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
@@ -10817,9 +10561,11 @@
         <v>-907.0249982976472</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>70550</v>
+      </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
@@ -10854,7 +10600,7 @@
         <v>-908.3217982976472</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I279" t="n">
         <v>70600</v>
@@ -10893,9 +10639,11 @@
         <v>-897.6467982976473</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>70250</v>
+      </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
@@ -10930,9 +10678,11 @@
         <v>-814.3944982976473</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>70500</v>
+      </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
@@ -10967,9 +10717,11 @@
         <v>-763.3472982976473</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>70600</v>
+      </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
@@ -11004,9 +10756,11 @@
         <v>-761.8460982976472</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>71050</v>
+      </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
@@ -11041,9 +10795,11 @@
         <v>-747.5109982976472</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>71400</v>
+      </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
@@ -11078,9 +10834,11 @@
         <v>-747.1509982976472</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>71500</v>
+      </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
@@ -11115,9 +10873,11 @@
         <v>-747.1509982976472</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>71600</v>
+      </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
@@ -11152,9 +10912,11 @@
         <v>-770.5626982976472</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>71600</v>
+      </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
@@ -11189,7 +10951,7 @@
         <v>-769.3877982976472</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288" t="n">
         <v>71500</v>
@@ -11228,7 +10990,7 @@
         <v>-762.3864982976472</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I289" t="n">
         <v>71950</v>
@@ -11267,7 +11029,7 @@
         <v>-759.9815982976472</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I290" t="n">
         <v>72000</v>
@@ -11306,7 +11068,7 @@
         <v>-759.9815982976472</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I291" t="n">
         <v>72200</v>
@@ -11345,7 +11107,7 @@
         <v>-756.1314982976472</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I292" t="n">
         <v>72200</v>
@@ -11384,7 +11146,7 @@
         <v>-754.1314982976472</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I293" t="n">
         <v>72400</v>
@@ -11423,7 +11185,7 @@
         <v>-752.4315982976473</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I294" t="n">
         <v>72600</v>
@@ -11462,9 +11224,11 @@
         <v>-748.4315982976473</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>72700</v>
+      </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
@@ -11499,9 +11263,11 @@
         <v>-743.3316982976472</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>73300</v>
+      </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
@@ -11536,16 +11302,20 @@
         <v>-743.3453037398232</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>73700</v>
+      </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L297" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
       <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
@@ -11571,11 +11341,17 @@
         <v>-735.3453037398232</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>73500</v>
+      </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11604,11 +11380,17 @@
         <v>-735.3453037398232</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>74500</v>
+      </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11637,11 +11419,17 @@
         <v>-745.6353037398231</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>74500</v>
+      </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11670,11 +11458,17 @@
         <v>-756.9317037398231</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>73750</v>
+      </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11703,11 +11497,17 @@
         <v>-765.9825037398231</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>73700</v>
+      </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11736,11 +11536,17 @@
         <v>-764.5996037398231</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>73350</v>
+      </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11769,11 +11575,17 @@
         <v>-763.8554037398231</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>73700</v>
+      </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11802,11 +11614,17 @@
         <v>-760.2254037398232</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>73750</v>
+      </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11835,11 +11653,17 @@
         <v>-762.2433037398232</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>74150</v>
+      </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11868,11 +11692,17 @@
         <v>-761.1203037398232</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>74000</v>
+      </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11901,11 +11731,17 @@
         <v>-761.1203037398232</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>74450</v>
+      </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11934,11 +11770,17 @@
         <v>-761.1068809210321</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>74450</v>
+      </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11967,11 +11809,17 @@
         <v>-762.7027809210322</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>74500</v>
+      </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12000,11 +11848,17 @@
         <v>-762.7027809210322</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>73900</v>
+      </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12033,11 +11887,17 @@
         <v>-765.2950215439162</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>73900</v>
+      </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12066,11 +11926,17 @@
         <v>-765.6634215439161</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>73350</v>
+      </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12099,11 +11965,17 @@
         <v>-775.5131215439161</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>73300</v>
+      </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12132,11 +12004,17 @@
         <v>-774.8606215439161</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>72750</v>
+      </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12165,11 +12043,17 @@
         <v>-767.3781215439161</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>73000</v>
+      </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12198,11 +12082,17 @@
         <v>-749.5928215439161</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>73200</v>
+      </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12231,11 +12121,17 @@
         <v>-723.4144215439161</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>73450</v>
+      </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12264,11 +12160,17 @@
         <v>-730.8731215439161</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>74050</v>
+      </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12297,11 +12199,17 @@
         <v>-730.8731215439161</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>73600</v>
+      </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12330,11 +12238,17 @@
         <v>-730.6969215439161</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>73600</v>
+      </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12363,11 +12277,17 @@
         <v>-714.2969215439161</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>73650</v>
+      </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12396,11 +12316,17 @@
         <v>-714.4969215439162</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>73700</v>
+      </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12429,11 +12355,17 @@
         <v>-714.5106215439162</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>73350</v>
+      </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12462,11 +12394,17 @@
         <v>-711.9753215439162</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>73300</v>
+      </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12495,11 +12433,17 @@
         <v>-712.7456215439162</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>73350</v>
+      </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12528,11 +12472,17 @@
         <v>-710.3834215439161</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>73050</v>
+      </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12561,11 +12511,17 @@
         <v>-709.9212215439161</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>73450</v>
+      </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12594,11 +12550,17 @@
         <v>-707.615721543916</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>73750</v>
+      </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12627,11 +12589,17 @@
         <v>-707.629421543916</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>73850</v>
+      </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12660,11 +12628,17 @@
         <v>-707.573121543916</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>73050</v>
+      </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12693,11 +12667,17 @@
         <v>-697.719921543916</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>73150</v>
+      </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12726,11 +12706,17 @@
         <v>-717.719921543916</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>73450</v>
+      </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12759,11 +12745,17 @@
         <v>475.723978456084</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>73150</v>
+      </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12796,7 +12788,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12829,7 +12825,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12862,7 +12862,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12895,7 +12899,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12928,7 +12936,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12961,7 +12973,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12994,7 +13010,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13027,7 +13047,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13060,7 +13084,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13093,7 +13121,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13126,7 +13158,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13159,7 +13195,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13192,7 +13232,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13225,7 +13269,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13258,7 +13306,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13291,7 +13343,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13324,7 +13380,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13357,7 +13417,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13390,7 +13454,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13423,7 +13491,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13452,11 +13524,15 @@
         <v>339.767200853471</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13489,7 +13565,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13522,7 +13602,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13555,13 +13639,17 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
       <c r="M358" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest XMR.xlsx
+++ b/BackTest/2020-01-16 BackTest XMR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-764.871549227374</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>-764.271549227374</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>66800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>-764.352549227374</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>66850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>-837.780549227374</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>66600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,17 +583,11 @@
         <v>-837.730549227374</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>66200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,17 +616,11 @@
         <v>-838.8802492273741</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>66500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -679,17 +649,11 @@
         <v>-838.8802492273741</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>66450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -718,17 +682,11 @@
         <v>-838.930249227374</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>66450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -757,17 +715,11 @@
         <v>-839.2108492273741</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>66300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -796,17 +748,11 @@
         <v>-840.3302492273741</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>66150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -835,17 +781,11 @@
         <v>-814.2611492273741</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>65850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -874,17 +814,11 @@
         <v>-814.2611492273741</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>66500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -913,17 +847,11 @@
         <v>-826.297549227374</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>66500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -952,17 +880,11 @@
         <v>-827.1252492273741</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>66450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -991,17 +913,11 @@
         <v>-824.7917492273741</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>65900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1030,17 +946,11 @@
         <v>-774.4184492273741</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>66600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1069,17 +979,11 @@
         <v>-774.4184492273741</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>67000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1108,17 +1012,11 @@
         <v>-774.2184492273741</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>67000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1147,17 +1045,11 @@
         <v>-774.2184492273741</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>67300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1186,17 +1078,11 @@
         <v>-797.167449227374</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>67300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1225,17 +1111,11 @@
         <v>-796.509449227374</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1264,17 +1144,11 @@
         <v>-795.444749227374</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>67050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1303,17 +1177,11 @@
         <v>-795.444749227374</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>67550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1342,17 +1210,11 @@
         <v>-794.2665492273741</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>67550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1381,17 +1243,11 @@
         <v>-797.9879492273741</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>67600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1420,17 +1276,11 @@
         <v>-800.1764492273741</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>67250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1459,17 +1309,11 @@
         <v>-800.003149227374</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>67000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1498,17 +1342,11 @@
         <v>-887.8376492273741</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>67500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1537,17 +1375,11 @@
         <v>-877.1547492273741</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>67450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1576,17 +1408,11 @@
         <v>-558.846349227374</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>67600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1619,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1656,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1689,17 +1507,11 @@
         <v>-570.0607492273741</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>67500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1728,17 +1540,11 @@
         <v>-571.3563492273742</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>67000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1767,17 +1573,11 @@
         <v>-571.3563492273742</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>66750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1806,17 +1606,11 @@
         <v>-571.2563492273741</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>66750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1845,17 +1639,11 @@
         <v>-572.0513492273741</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>67100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1884,17 +1672,11 @@
         <v>-568.8816492273741</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>67000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1923,17 +1705,11 @@
         <v>-568.8816492273741</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>67500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1962,17 +1738,11 @@
         <v>-568.8816492273741</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>67500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2001,17 +1771,11 @@
         <v>-568.8816492273741</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>67500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2040,17 +1804,11 @@
         <v>-568.8816492273741</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>67500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2079,17 +1837,11 @@
         <v>-568.8816492273741</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>67500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2118,17 +1870,11 @@
         <v>-568.8816492273741</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>67500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2157,17 +1903,11 @@
         <v>-568.8816492273741</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>67500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2196,17 +1936,11 @@
         <v>-574.8816492273741</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>67500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2235,17 +1969,11 @@
         <v>-572.851849227374</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>66700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2274,17 +2002,11 @@
         <v>-570.345049227374</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>66750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2313,17 +2035,11 @@
         <v>-559.639049227374</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>67650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2352,17 +2068,11 @@
         <v>-550.996349227374</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>67800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2391,17 +2101,11 @@
         <v>-550.996349227374</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>67900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2430,17 +2134,11 @@
         <v>-550.893549227374</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>67900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2469,17 +2167,11 @@
         <v>-515.049749227374</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>67950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2508,17 +2200,11 @@
         <v>-513.049749227374</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>68000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2547,17 +2233,11 @@
         <v>-513.049749227374</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>68500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2586,17 +2266,11 @@
         <v>-503.020349227374</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>68500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2625,17 +2299,11 @@
         <v>-503.020349227374</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>68950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2664,17 +2332,11 @@
         <v>-503.020349227374</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>68950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2707,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2744,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2781,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2818,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2855,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2892,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2929,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2966,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3003,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3036,17 +2662,11 @@
         <v>-451.307791879704</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>68350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3075,17 +2695,11 @@
         <v>-451.6677918797041</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>68350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3118,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3155,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3192,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3229,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3266,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3303,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3340,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3377,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3414,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3451,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3488,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3525,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3562,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3599,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3636,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3673,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3710,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3747,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3817,17 +3355,11 @@
         <v>-355.978391879704</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>68150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3856,17 +3388,11 @@
         <v>-356.260091879704</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>68450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3899,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3932,17 +3454,11 @@
         <v>-443.260091879704</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>68050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3975,11 +3491,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4012,11 +3524,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4049,11 +3557,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4086,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4123,11 +3623,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4160,11 +3656,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4193,15 +3685,11 @@
         <v>946.969546596858</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4230,15 +3718,11 @@
         <v>459.418446596858</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4267,15 +3751,11 @@
         <v>459.418446596858</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4304,15 +3784,11 @@
         <v>110.850546596858</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4341,15 +3817,11 @@
         <v>-230.047353403142</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4378,15 +3850,11 @@
         <v>-340.42845716254</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4415,15 +3883,11 @@
         <v>-376.7035571625401</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4452,15 +3916,11 @@
         <v>-376.7035571625401</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4489,15 +3949,11 @@
         <v>-397.7001571625401</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4526,15 +3982,11 @@
         <v>-397.10015716254</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4563,15 +4015,11 @@
         <v>-316.20655716254</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4600,15 +4048,11 @@
         <v>-275.93035716254</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4637,15 +4081,11 @@
         <v>-352.60215716254</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4678,11 +4118,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4715,11 +4151,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4752,11 +4184,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4789,11 +4217,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4826,11 +4250,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4863,11 +4283,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4900,11 +4316,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4937,11 +4349,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4974,11 +4382,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5011,11 +4415,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5048,11 +4448,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5085,11 +4481,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5122,11 +4514,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5159,11 +4547,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5196,11 +4580,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5233,11 +4613,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5270,11 +4646,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5307,11 +4679,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5344,11 +4712,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5381,11 +4745,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5418,11 +4778,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5455,11 +4811,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5488,16 +4840,14 @@
         <v>-76.81690747203406</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
       <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
@@ -5523,7 +4873,7 @@
         <v>-76.81690747203406</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5556,7 +4906,7 @@
         <v>-83.64210747203406</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5589,7 +4939,7 @@
         <v>-77.34850747203406</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5622,7 +4972,7 @@
         <v>-185.2988074720341</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5655,7 +5005,7 @@
         <v>-167.1138074720341</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5688,7 +5038,7 @@
         <v>-330.7032074720341</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5721,7 +5071,7 @@
         <v>-520.139307472034</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5754,7 +5104,7 @@
         <v>-522.401507472034</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -8064,14 +7414,10 @@
         <v>-799.9444898706849</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>70850</v>
-      </c>
-      <c r="J213" t="n">
-        <v>70850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
@@ -8104,14 +7450,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>70850</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8143,14 +7483,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>70850</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8377,2318 +7711,2032 @@
         <v>-859.1110939465809</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>70250</v>
+      </c>
+      <c r="C223" t="n">
+        <v>70200</v>
+      </c>
+      <c r="D223" t="n">
+        <v>70250</v>
+      </c>
+      <c r="E223" t="n">
+        <v>70200</v>
+      </c>
+      <c r="F223" t="n">
+        <v>11.1535</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-870.2645939465809</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>70200</v>
+      </c>
+      <c r="C224" t="n">
+        <v>70200</v>
+      </c>
+      <c r="D224" t="n">
+        <v>70200</v>
+      </c>
+      <c r="E224" t="n">
+        <v>70200</v>
+      </c>
+      <c r="F224" t="n">
+        <v>4.9269</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-870.2645939465809</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>70100</v>
+      </c>
+      <c r="C225" t="n">
+        <v>70000</v>
+      </c>
+      <c r="D225" t="n">
+        <v>70100</v>
+      </c>
+      <c r="E225" t="n">
+        <v>70000</v>
+      </c>
+      <c r="F225" t="n">
+        <v>10</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-880.2645939465809</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>70300</v>
+      </c>
+      <c r="C226" t="n">
+        <v>70300</v>
+      </c>
+      <c r="D226" t="n">
+        <v>70300</v>
+      </c>
+      <c r="E226" t="n">
+        <v>70300</v>
+      </c>
+      <c r="F226" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-876.984593946581</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>70050</v>
+      </c>
+      <c r="C227" t="n">
+        <v>70250</v>
+      </c>
+      <c r="D227" t="n">
+        <v>70250</v>
+      </c>
+      <c r="E227" t="n">
+        <v>70000</v>
+      </c>
+      <c r="F227" t="n">
+        <v>14.6108</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-891.595393946581</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>70050</v>
+      </c>
+      <c r="C228" t="n">
+        <v>70000</v>
+      </c>
+      <c r="D228" t="n">
+        <v>70050</v>
+      </c>
+      <c r="E228" t="n">
+        <v>70000</v>
+      </c>
+      <c r="F228" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-897.195393946581</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>70300</v>
+      </c>
+      <c r="C229" t="n">
+        <v>70300</v>
+      </c>
+      <c r="D229" t="n">
+        <v>70300</v>
+      </c>
+      <c r="E229" t="n">
+        <v>70300</v>
+      </c>
+      <c r="F229" t="n">
+        <v>1.8412</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-895.3541939465811</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>70350</v>
+      </c>
+      <c r="C230" t="n">
+        <v>70350</v>
+      </c>
+      <c r="D230" t="n">
+        <v>70350</v>
+      </c>
+      <c r="E230" t="n">
+        <v>70350</v>
+      </c>
+      <c r="F230" t="n">
+        <v>1.653</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-893.701193946581</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>70350</v>
+      </c>
+      <c r="C231" t="n">
+        <v>70350</v>
+      </c>
+      <c r="D231" t="n">
+        <v>70350</v>
+      </c>
+      <c r="E231" t="n">
+        <v>70350</v>
+      </c>
+      <c r="F231" t="n">
+        <v>13.1157</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-893.701193946581</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>70200</v>
+      </c>
+      <c r="C232" t="n">
+        <v>70700</v>
+      </c>
+      <c r="D232" t="n">
+        <v>70700</v>
+      </c>
+      <c r="E232" t="n">
+        <v>70200</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0.4897</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-893.2114939465811</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>70050</v>
+      </c>
+      <c r="C233" t="n">
+        <v>70800</v>
+      </c>
+      <c r="D233" t="n">
+        <v>70800</v>
+      </c>
+      <c r="E233" t="n">
+        <v>70050</v>
+      </c>
+      <c r="F233" t="n">
+        <v>19.5372</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-873.6742939465811</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
         <v>70450</v>
       </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
+      <c r="C234" t="n">
+        <v>70450</v>
+      </c>
+      <c r="D234" t="n">
+        <v>70450</v>
+      </c>
+      <c r="E234" t="n">
+        <v>70450</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0.3684</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-874.042693946581</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>69550</v>
+      </c>
+      <c r="C235" t="n">
+        <v>69550</v>
+      </c>
+      <c r="D235" t="n">
+        <v>69550</v>
+      </c>
+      <c r="E235" t="n">
+        <v>69550</v>
+      </c>
+      <c r="F235" t="n">
+        <v>2.9186</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-876.961293946581</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>69550</v>
+      </c>
+      <c r="C236" t="n">
+        <v>69550</v>
+      </c>
+      <c r="D236" t="n">
+        <v>69550</v>
+      </c>
+      <c r="E236" t="n">
+        <v>69500</v>
+      </c>
+      <c r="F236" t="n">
+        <v>15.8177</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-876.961293946581</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>69550</v>
+      </c>
+      <c r="C237" t="n">
+        <v>69550</v>
+      </c>
+      <c r="D237" t="n">
+        <v>69550</v>
+      </c>
+      <c r="E237" t="n">
+        <v>69550</v>
+      </c>
+      <c r="F237" t="n">
+        <v>10.1456</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-876.961293946581</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>69550</v>
+      </c>
+      <c r="C238" t="n">
+        <v>69550</v>
+      </c>
+      <c r="D238" t="n">
+        <v>69550</v>
+      </c>
+      <c r="E238" t="n">
+        <v>69550</v>
+      </c>
+      <c r="F238" t="n">
+        <v>12.4901</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-876.961293946581</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>69850</v>
+      </c>
+      <c r="C239" t="n">
+        <v>69850</v>
+      </c>
+      <c r="D239" t="n">
+        <v>69850</v>
+      </c>
+      <c r="E239" t="n">
+        <v>69850</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0.0152</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-876.946093946581</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>69300</v>
+      </c>
+      <c r="C240" t="n">
+        <v>69300</v>
+      </c>
+      <c r="D240" t="n">
+        <v>69300</v>
+      </c>
+      <c r="E240" t="n">
+        <v>69300</v>
+      </c>
+      <c r="F240" t="n">
+        <v>49.7857</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-926.731793946581</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>69750</v>
+      </c>
+      <c r="C241" t="n">
+        <v>69750</v>
+      </c>
+      <c r="D241" t="n">
+        <v>69750</v>
+      </c>
+      <c r="E241" t="n">
+        <v>69750</v>
+      </c>
+      <c r="F241" t="n">
+        <v>1.0045</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-925.727293946581</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>69750</v>
+      </c>
+      <c r="C242" t="n">
+        <v>69750</v>
+      </c>
+      <c r="D242" t="n">
+        <v>69750</v>
+      </c>
+      <c r="E242" t="n">
+        <v>69750</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0.7069</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-925.727293946581</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>69950</v>
+      </c>
+      <c r="C243" t="n">
+        <v>70000</v>
+      </c>
+      <c r="D243" t="n">
+        <v>70000</v>
+      </c>
+      <c r="E243" t="n">
+        <v>69950</v>
+      </c>
+      <c r="F243" t="n">
+        <v>69.3711</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-856.356193946581</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>70000</v>
+      </c>
+      <c r="C244" t="n">
+        <v>70000</v>
+      </c>
+      <c r="D244" t="n">
+        <v>70000</v>
+      </c>
+      <c r="E244" t="n">
+        <v>70000</v>
+      </c>
+      <c r="F244" t="n">
+        <v>1.955</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-856.356193946581</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>70000</v>
+      </c>
+      <c r="C245" t="n">
+        <v>70000</v>
+      </c>
+      <c r="D245" t="n">
+        <v>70000</v>
+      </c>
+      <c r="E245" t="n">
+        <v>70000</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0.7292</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-856.356193946581</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>70000</v>
+      </c>
+      <c r="C246" t="n">
+        <v>69750</v>
+      </c>
+      <c r="D246" t="n">
+        <v>70000</v>
+      </c>
+      <c r="E246" t="n">
+        <v>69750</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0.9028</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-857.258993946581</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>69750</v>
+      </c>
+      <c r="C247" t="n">
+        <v>69750</v>
+      </c>
+      <c r="D247" t="n">
+        <v>69750</v>
+      </c>
+      <c r="E247" t="n">
+        <v>69750</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0.5021</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-857.258993946581</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>69800</v>
+      </c>
+      <c r="C248" t="n">
+        <v>69800</v>
+      </c>
+      <c r="D248" t="n">
+        <v>69800</v>
+      </c>
+      <c r="E248" t="n">
+        <v>69800</v>
+      </c>
+      <c r="F248" t="n">
+        <v>1.5156</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-855.743393946581</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>69800</v>
+      </c>
+      <c r="C249" t="n">
+        <v>69800</v>
+      </c>
+      <c r="D249" t="n">
+        <v>69800</v>
+      </c>
+      <c r="E249" t="n">
+        <v>69800</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0.4781</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-855.743393946581</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>69750</v>
+      </c>
+      <c r="C250" t="n">
+        <v>69750</v>
+      </c>
+      <c r="D250" t="n">
+        <v>69750</v>
+      </c>
+      <c r="E250" t="n">
+        <v>69750</v>
+      </c>
+      <c r="F250" t="n">
+        <v>1.5018</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-857.245193946581</v>
+      </c>
+      <c r="H250" t="n">
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>69800</v>
+      </c>
+      <c r="J250" t="n">
+        <v>69800</v>
+      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>69750</v>
+      </c>
+      <c r="C251" t="n">
+        <v>69750</v>
+      </c>
+      <c r="D251" t="n">
+        <v>69750</v>
+      </c>
+      <c r="E251" t="n">
+        <v>69750</v>
+      </c>
+      <c r="F251" t="n">
+        <v>6.9383</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-857.245193946581</v>
+      </c>
+      <c r="H251" t="n">
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>69750</v>
+      </c>
+      <c r="J251" t="n">
+        <v>69800</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>70100</v>
+      </c>
+      <c r="C252" t="n">
+        <v>70450</v>
+      </c>
+      <c r="D252" t="n">
+        <v>70450</v>
+      </c>
+      <c r="E252" t="n">
+        <v>70100</v>
+      </c>
+      <c r="F252" t="n">
+        <v>2</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-855.245193946581</v>
+      </c>
+      <c r="H252" t="n">
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>69750</v>
+      </c>
+      <c r="J252" t="n">
+        <v>69800</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>71000</v>
+      </c>
+      <c r="C253" t="n">
+        <v>71000</v>
+      </c>
+      <c r="D253" t="n">
+        <v>71000</v>
+      </c>
+      <c r="E253" t="n">
+        <v>71000</v>
+      </c>
+      <c r="F253" t="n">
+        <v>1</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-854.245193946581</v>
+      </c>
+      <c r="H253" t="n">
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>70450</v>
+      </c>
+      <c r="J253" t="n">
+        <v>70450</v>
+      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>71250</v>
+      </c>
+      <c r="C254" t="n">
+        <v>71300</v>
+      </c>
+      <c r="D254" t="n">
+        <v>71300</v>
+      </c>
+      <c r="E254" t="n">
+        <v>71250</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0.6128</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-853.632393946581</v>
+      </c>
+      <c r="H254" t="n">
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>71000</v>
+      </c>
+      <c r="J254" t="n">
+        <v>70450</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>71250</v>
+      </c>
+      <c r="C255" t="n">
+        <v>71250</v>
+      </c>
+      <c r="D255" t="n">
+        <v>71250</v>
+      </c>
+      <c r="E255" t="n">
+        <v>71250</v>
+      </c>
+      <c r="F255" t="n">
+        <v>1.143</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-854.7753939465811</v>
+      </c>
+      <c r="H255" t="n">
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>71300</v>
+      </c>
+      <c r="J255" t="n">
+        <v>70450</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>71300</v>
+      </c>
+      <c r="C256" t="n">
+        <v>71300</v>
+      </c>
+      <c r="D256" t="n">
+        <v>71300</v>
+      </c>
+      <c r="E256" t="n">
+        <v>71300</v>
+      </c>
+      <c r="F256" t="n">
+        <v>2.0319</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-852.7434939465811</v>
+      </c>
+      <c r="H256" t="n">
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>71250</v>
+      </c>
+      <c r="J256" t="n">
+        <v>71250</v>
+      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>70750</v>
+      </c>
+      <c r="C257" t="n">
+        <v>70750</v>
+      </c>
+      <c r="D257" t="n">
+        <v>70750</v>
+      </c>
+      <c r="E257" t="n">
+        <v>70750</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0.0818</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-852.8252939465812</v>
+      </c>
+      <c r="H257" t="n">
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>71300</v>
+      </c>
+      <c r="J257" t="n">
+        <v>71250</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>71300</v>
+      </c>
+      <c r="C258" t="n">
+        <v>71300</v>
+      </c>
+      <c r="D258" t="n">
+        <v>71300</v>
+      </c>
+      <c r="E258" t="n">
+        <v>71300</v>
+      </c>
+      <c r="F258" t="n">
+        <v>2.243394109396</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-850.5818998371851</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>71250</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>70800</v>
+      </c>
+      <c r="C259" t="n">
+        <v>70700</v>
+      </c>
+      <c r="D259" t="n">
+        <v>70800</v>
+      </c>
+      <c r="E259" t="n">
+        <v>70700</v>
+      </c>
+      <c r="F259" t="n">
+        <v>7.3226</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-857.9044998371851</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>70750</v>
+      </c>
+      <c r="C260" t="n">
+        <v>70750</v>
+      </c>
+      <c r="D260" t="n">
+        <v>70750</v>
+      </c>
+      <c r="E260" t="n">
+        <v>70750</v>
+      </c>
+      <c r="F260" t="n">
+        <v>1.0741</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-856.830399837185</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>71000</v>
+      </c>
+      <c r="C261" t="n">
+        <v>71450</v>
+      </c>
+      <c r="D261" t="n">
+        <v>71450</v>
+      </c>
+      <c r="E261" t="n">
+        <v>71000</v>
+      </c>
+      <c r="F261" t="n">
+        <v>63.297901539538</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-793.5324982976471</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>71300</v>
+      </c>
+      <c r="C262" t="n">
+        <v>71300</v>
+      </c>
+      <c r="D262" t="n">
+        <v>71300</v>
+      </c>
+      <c r="E262" t="n">
+        <v>71300</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0.1595</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-793.691998297647</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>70800</v>
+      </c>
+      <c r="C263" t="n">
+        <v>70800</v>
+      </c>
+      <c r="D263" t="n">
+        <v>70800</v>
+      </c>
+      <c r="E263" t="n">
+        <v>70800</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0.6766</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-794.3685982976471</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>71100</v>
+      </c>
+      <c r="C264" t="n">
+        <v>71100</v>
+      </c>
+      <c r="D264" t="n">
+        <v>71100</v>
+      </c>
+      <c r="E264" t="n">
+        <v>71100</v>
+      </c>
+      <c r="F264" t="n">
+        <v>1.4751</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-792.8934982976471</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>71100</v>
+      </c>
+      <c r="C265" t="n">
+        <v>71100</v>
+      </c>
+      <c r="D265" t="n">
+        <v>71100</v>
+      </c>
+      <c r="E265" t="n">
+        <v>71100</v>
+      </c>
+      <c r="F265" t="n">
+        <v>1</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-792.8934982976471</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>71100</v>
+      </c>
+      <c r="C266" t="n">
+        <v>71100</v>
+      </c>
+      <c r="D266" t="n">
+        <v>71100</v>
+      </c>
+      <c r="E266" t="n">
+        <v>71100</v>
+      </c>
+      <c r="F266" t="n">
+        <v>3.4503</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-792.8934982976471</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>70900</v>
+      </c>
+      <c r="C267" t="n">
+        <v>70850</v>
+      </c>
+      <c r="D267" t="n">
+        <v>70900</v>
+      </c>
+      <c r="E267" t="n">
+        <v>70850</v>
+      </c>
+      <c r="F267" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-797.3934982976471</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>70850</v>
+      </c>
+      <c r="C268" t="n">
+        <v>70800</v>
+      </c>
+      <c r="D268" t="n">
+        <v>70850</v>
+      </c>
+      <c r="E268" t="n">
+        <v>70800</v>
+      </c>
+      <c r="F268" t="n">
+        <v>3.0333</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-800.4267982976471</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>70800</v>
+      </c>
+      <c r="C269" t="n">
+        <v>70700</v>
+      </c>
+      <c r="D269" t="n">
+        <v>70800</v>
+      </c>
+      <c r="E269" t="n">
+        <v>70700</v>
+      </c>
+      <c r="F269" t="n">
+        <v>66.3468</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-866.7735982976471</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>70950</v>
+      </c>
+      <c r="C270" t="n">
+        <v>70950</v>
+      </c>
+      <c r="D270" t="n">
+        <v>70950</v>
+      </c>
+      <c r="E270" t="n">
+        <v>70950</v>
+      </c>
+      <c r="F270" t="n">
+        <v>0.0141</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-866.7594982976472</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>70700</v>
+      </c>
+      <c r="C271" t="n">
+        <v>70700</v>
+      </c>
+      <c r="D271" t="n">
+        <v>70700</v>
+      </c>
+      <c r="E271" t="n">
+        <v>70700</v>
+      </c>
+      <c r="F271" t="n">
+        <v>0.0143</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-866.7737982976472</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>70700</v>
+      </c>
+      <c r="C272" t="n">
+        <v>70700</v>
+      </c>
+      <c r="D272" t="n">
+        <v>70700</v>
+      </c>
+      <c r="E272" t="n">
+        <v>70700</v>
+      </c>
+      <c r="F272" t="n">
+        <v>1</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-866.7737982976472</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>70700</v>
+      </c>
+      <c r="C273" t="n">
+        <v>70700</v>
+      </c>
+      <c r="D273" t="n">
+        <v>70700</v>
+      </c>
+      <c r="E273" t="n">
+        <v>70700</v>
+      </c>
+      <c r="F273" t="n">
+        <v>0.990806223479</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-866.7737982976472</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>70350</v>
+      </c>
+      <c r="C274" t="n">
+        <v>70350</v>
+      </c>
+      <c r="D274" t="n">
+        <v>70350</v>
+      </c>
+      <c r="E274" t="n">
+        <v>70350</v>
+      </c>
+      <c r="F274" t="n">
+        <v>0.0143</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-866.7880982976473</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>70200</v>
+      </c>
+      <c r="C275" t="n">
+        <v>70100</v>
+      </c>
+      <c r="D275" t="n">
+        <v>70200</v>
+      </c>
+      <c r="E275" t="n">
+        <v>70100</v>
+      </c>
+      <c r="F275" t="n">
+        <v>41.3537</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-908.1417982976473</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>70650</v>
+      </c>
+      <c r="C276" t="n">
+        <v>70650</v>
+      </c>
+      <c r="D276" t="n">
+        <v>70650</v>
+      </c>
+      <c r="E276" t="n">
+        <v>70650</v>
+      </c>
+      <c r="F276" t="n">
+        <v>0.803</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-907.3387982976473</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>70550</v>
+      </c>
+      <c r="C277" t="n">
+        <v>70550</v>
+      </c>
+      <c r="D277" t="n">
+        <v>70550</v>
+      </c>
+      <c r="E277" t="n">
+        <v>70550</v>
+      </c>
+      <c r="F277" t="n">
+        <v>1.1896</v>
+      </c>
+      <c r="G277" t="n">
+        <v>-908.5283982976473</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>70550</v>
+      </c>
+      <c r="C278" t="n">
+        <v>70600</v>
+      </c>
+      <c r="D278" t="n">
+        <v>70600</v>
+      </c>
+      <c r="E278" t="n">
+        <v>70550</v>
+      </c>
+      <c r="F278" t="n">
+        <v>1.5034</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-907.0249982976472</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>70250</v>
+      </c>
+      <c r="C279" t="n">
+        <v>70250</v>
+      </c>
+      <c r="D279" t="n">
+        <v>70250</v>
+      </c>
+      <c r="E279" t="n">
+        <v>70250</v>
+      </c>
+      <c r="F279" t="n">
+        <v>1.2968</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-908.3217982976472</v>
+      </c>
+      <c r="H279" t="n">
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>70600</v>
+      </c>
+      <c r="J279" t="n">
+        <v>70600</v>
+      </c>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>70500</v>
+      </c>
+      <c r="C280" t="n">
+        <v>70500</v>
+      </c>
+      <c r="D280" t="n">
+        <v>70500</v>
+      </c>
+      <c r="E280" t="n">
+        <v>70500</v>
+      </c>
+      <c r="F280" t="n">
+        <v>10.675</v>
+      </c>
+      <c r="G280" t="n">
+        <v>-897.6467982976473</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>70600</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>70550</v>
+      </c>
+      <c r="C281" t="n">
+        <v>70600</v>
+      </c>
+      <c r="D281" t="n">
+        <v>70600</v>
+      </c>
+      <c r="E281" t="n">
+        <v>70550</v>
+      </c>
+      <c r="F281" t="n">
+        <v>83.25230000000001</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-814.3944982976473</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>70600</v>
+      </c>
+      <c r="K281" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>70250</v>
-      </c>
-      <c r="C223" t="n">
-        <v>70200</v>
-      </c>
-      <c r="D223" t="n">
-        <v>70250</v>
-      </c>
-      <c r="E223" t="n">
-        <v>70200</v>
-      </c>
-      <c r="F223" t="n">
-        <v>11.1535</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-870.2645939465809</v>
-      </c>
-      <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>70300</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>70200</v>
-      </c>
-      <c r="C224" t="n">
-        <v>70200</v>
-      </c>
-      <c r="D224" t="n">
-        <v>70200</v>
-      </c>
-      <c r="E224" t="n">
-        <v>70200</v>
-      </c>
-      <c r="F224" t="n">
-        <v>4.9269</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-870.2645939465809</v>
-      </c>
-      <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>70200</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>70100</v>
-      </c>
-      <c r="C225" t="n">
-        <v>70000</v>
-      </c>
-      <c r="D225" t="n">
-        <v>70100</v>
-      </c>
-      <c r="E225" t="n">
-        <v>70000</v>
-      </c>
-      <c r="F225" t="n">
-        <v>10</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-880.2645939465809</v>
-      </c>
-      <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>70200</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>70300</v>
-      </c>
-      <c r="C226" t="n">
-        <v>70300</v>
-      </c>
-      <c r="D226" t="n">
-        <v>70300</v>
-      </c>
-      <c r="E226" t="n">
-        <v>70300</v>
-      </c>
-      <c r="F226" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-876.984593946581</v>
-      </c>
-      <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>70000</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>70050</v>
-      </c>
-      <c r="C227" t="n">
-        <v>70250</v>
-      </c>
-      <c r="D227" t="n">
-        <v>70250</v>
-      </c>
-      <c r="E227" t="n">
-        <v>70000</v>
-      </c>
-      <c r="F227" t="n">
-        <v>14.6108</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-891.595393946581</v>
-      </c>
-      <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>70300</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>70050</v>
-      </c>
-      <c r="C228" t="n">
-        <v>70000</v>
-      </c>
-      <c r="D228" t="n">
-        <v>70050</v>
-      </c>
-      <c r="E228" t="n">
-        <v>70000</v>
-      </c>
-      <c r="F228" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-897.195393946581</v>
-      </c>
-      <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>70250</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>70300</v>
-      </c>
-      <c r="C229" t="n">
-        <v>70300</v>
-      </c>
-      <c r="D229" t="n">
-        <v>70300</v>
-      </c>
-      <c r="E229" t="n">
-        <v>70300</v>
-      </c>
-      <c r="F229" t="n">
-        <v>1.8412</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-895.3541939465811</v>
-      </c>
-      <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>70000</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>70350</v>
-      </c>
-      <c r="C230" t="n">
-        <v>70350</v>
-      </c>
-      <c r="D230" t="n">
-        <v>70350</v>
-      </c>
-      <c r="E230" t="n">
-        <v>70350</v>
-      </c>
-      <c r="F230" t="n">
-        <v>1.653</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-893.701193946581</v>
-      </c>
-      <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>70300</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>70350</v>
-      </c>
-      <c r="C231" t="n">
-        <v>70350</v>
-      </c>
-      <c r="D231" t="n">
-        <v>70350</v>
-      </c>
-      <c r="E231" t="n">
-        <v>70350</v>
-      </c>
-      <c r="F231" t="n">
-        <v>13.1157</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-893.701193946581</v>
-      </c>
-      <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>70350</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>70200</v>
-      </c>
-      <c r="C232" t="n">
-        <v>70700</v>
-      </c>
-      <c r="D232" t="n">
-        <v>70700</v>
-      </c>
-      <c r="E232" t="n">
-        <v>70200</v>
-      </c>
-      <c r="F232" t="n">
-        <v>0.4897</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-893.2114939465811</v>
-      </c>
-      <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>70350</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>70050</v>
-      </c>
-      <c r="C233" t="n">
-        <v>70800</v>
-      </c>
-      <c r="D233" t="n">
-        <v>70800</v>
-      </c>
-      <c r="E233" t="n">
-        <v>70050</v>
-      </c>
-      <c r="F233" t="n">
-        <v>19.5372</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-873.6742939465811</v>
-      </c>
-      <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>70700</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>70450</v>
-      </c>
-      <c r="C234" t="n">
-        <v>70450</v>
-      </c>
-      <c r="D234" t="n">
-        <v>70450</v>
-      </c>
-      <c r="E234" t="n">
-        <v>70450</v>
-      </c>
-      <c r="F234" t="n">
-        <v>0.3684</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-874.042693946581</v>
-      </c>
-      <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>70800</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>69550</v>
-      </c>
-      <c r="C235" t="n">
-        <v>69550</v>
-      </c>
-      <c r="D235" t="n">
-        <v>69550</v>
-      </c>
-      <c r="E235" t="n">
-        <v>69550</v>
-      </c>
-      <c r="F235" t="n">
-        <v>2.9186</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-876.961293946581</v>
-      </c>
-      <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>70450</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>69550</v>
-      </c>
-      <c r="C236" t="n">
-        <v>69550</v>
-      </c>
-      <c r="D236" t="n">
-        <v>69550</v>
-      </c>
-      <c r="E236" t="n">
-        <v>69500</v>
-      </c>
-      <c r="F236" t="n">
-        <v>15.8177</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-876.961293946581</v>
-      </c>
-      <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>69550</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>69550</v>
-      </c>
-      <c r="C237" t="n">
-        <v>69550</v>
-      </c>
-      <c r="D237" t="n">
-        <v>69550</v>
-      </c>
-      <c r="E237" t="n">
-        <v>69550</v>
-      </c>
-      <c r="F237" t="n">
-        <v>10.1456</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-876.961293946581</v>
-      </c>
-      <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>69550</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>69550</v>
-      </c>
-      <c r="C238" t="n">
-        <v>69550</v>
-      </c>
-      <c r="D238" t="n">
-        <v>69550</v>
-      </c>
-      <c r="E238" t="n">
-        <v>69550</v>
-      </c>
-      <c r="F238" t="n">
-        <v>12.4901</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-876.961293946581</v>
-      </c>
-      <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>69550</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>69850</v>
-      </c>
-      <c r="C239" t="n">
-        <v>69850</v>
-      </c>
-      <c r="D239" t="n">
-        <v>69850</v>
-      </c>
-      <c r="E239" t="n">
-        <v>69850</v>
-      </c>
-      <c r="F239" t="n">
-        <v>0.0152</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-876.946093946581</v>
-      </c>
-      <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>69550</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>69300</v>
-      </c>
-      <c r="C240" t="n">
-        <v>69300</v>
-      </c>
-      <c r="D240" t="n">
-        <v>69300</v>
-      </c>
-      <c r="E240" t="n">
-        <v>69300</v>
-      </c>
-      <c r="F240" t="n">
-        <v>49.7857</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-926.731793946581</v>
-      </c>
-      <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>69850</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>69750</v>
-      </c>
-      <c r="C241" t="n">
-        <v>69750</v>
-      </c>
-      <c r="D241" t="n">
-        <v>69750</v>
-      </c>
-      <c r="E241" t="n">
-        <v>69750</v>
-      </c>
-      <c r="F241" t="n">
-        <v>1.0045</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-925.727293946581</v>
-      </c>
-      <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>69300</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>69750</v>
-      </c>
-      <c r="C242" t="n">
-        <v>69750</v>
-      </c>
-      <c r="D242" t="n">
-        <v>69750</v>
-      </c>
-      <c r="E242" t="n">
-        <v>69750</v>
-      </c>
-      <c r="F242" t="n">
-        <v>0.7069</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-925.727293946581</v>
-      </c>
-      <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>69750</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>69950</v>
-      </c>
-      <c r="C243" t="n">
-        <v>70000</v>
-      </c>
-      <c r="D243" t="n">
-        <v>70000</v>
-      </c>
-      <c r="E243" t="n">
-        <v>69950</v>
-      </c>
-      <c r="F243" t="n">
-        <v>69.3711</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-856.356193946581</v>
-      </c>
-      <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>69750</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>70000</v>
-      </c>
-      <c r="C244" t="n">
-        <v>70000</v>
-      </c>
-      <c r="D244" t="n">
-        <v>70000</v>
-      </c>
-      <c r="E244" t="n">
-        <v>70000</v>
-      </c>
-      <c r="F244" t="n">
-        <v>1.955</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-856.356193946581</v>
-      </c>
-      <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>70000</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>70000</v>
-      </c>
-      <c r="C245" t="n">
-        <v>70000</v>
-      </c>
-      <c r="D245" t="n">
-        <v>70000</v>
-      </c>
-      <c r="E245" t="n">
-        <v>70000</v>
-      </c>
-      <c r="F245" t="n">
-        <v>0.7292</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-856.356193946581</v>
-      </c>
-      <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>70000</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>70000</v>
-      </c>
-      <c r="C246" t="n">
-        <v>69750</v>
-      </c>
-      <c r="D246" t="n">
-        <v>70000</v>
-      </c>
-      <c r="E246" t="n">
-        <v>69750</v>
-      </c>
-      <c r="F246" t="n">
-        <v>0.9028</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-857.258993946581</v>
-      </c>
-      <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>70000</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>69750</v>
-      </c>
-      <c r="C247" t="n">
-        <v>69750</v>
-      </c>
-      <c r="D247" t="n">
-        <v>69750</v>
-      </c>
-      <c r="E247" t="n">
-        <v>69750</v>
-      </c>
-      <c r="F247" t="n">
-        <v>0.5021</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-857.258993946581</v>
-      </c>
-      <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>69750</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>69800</v>
-      </c>
-      <c r="C248" t="n">
-        <v>69800</v>
-      </c>
-      <c r="D248" t="n">
-        <v>69800</v>
-      </c>
-      <c r="E248" t="n">
-        <v>69800</v>
-      </c>
-      <c r="F248" t="n">
-        <v>1.5156</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-855.743393946581</v>
-      </c>
-      <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>69750</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>69800</v>
-      </c>
-      <c r="C249" t="n">
-        <v>69800</v>
-      </c>
-      <c r="D249" t="n">
-        <v>69800</v>
-      </c>
-      <c r="E249" t="n">
-        <v>69800</v>
-      </c>
-      <c r="F249" t="n">
-        <v>0.4781</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-855.743393946581</v>
-      </c>
-      <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>69800</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>69750</v>
-      </c>
-      <c r="C250" t="n">
-        <v>69750</v>
-      </c>
-      <c r="D250" t="n">
-        <v>69750</v>
-      </c>
-      <c r="E250" t="n">
-        <v>69750</v>
-      </c>
-      <c r="F250" t="n">
-        <v>1.5018</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-857.245193946581</v>
-      </c>
-      <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>69800</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>69750</v>
-      </c>
-      <c r="C251" t="n">
-        <v>69750</v>
-      </c>
-      <c r="D251" t="n">
-        <v>69750</v>
-      </c>
-      <c r="E251" t="n">
-        <v>69750</v>
-      </c>
-      <c r="F251" t="n">
-        <v>6.9383</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-857.245193946581</v>
-      </c>
-      <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>69750</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>70100</v>
-      </c>
-      <c r="C252" t="n">
-        <v>70450</v>
-      </c>
-      <c r="D252" t="n">
-        <v>70450</v>
-      </c>
-      <c r="E252" t="n">
-        <v>70100</v>
-      </c>
-      <c r="F252" t="n">
-        <v>2</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-855.245193946581</v>
-      </c>
-      <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>69750</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>71000</v>
-      </c>
-      <c r="C253" t="n">
-        <v>71000</v>
-      </c>
-      <c r="D253" t="n">
-        <v>71000</v>
-      </c>
-      <c r="E253" t="n">
-        <v>71000</v>
-      </c>
-      <c r="F253" t="n">
-        <v>1</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-854.245193946581</v>
-      </c>
-      <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>70450</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>71250</v>
-      </c>
-      <c r="C254" t="n">
-        <v>71300</v>
-      </c>
-      <c r="D254" t="n">
-        <v>71300</v>
-      </c>
-      <c r="E254" t="n">
-        <v>71250</v>
-      </c>
-      <c r="F254" t="n">
-        <v>0.6128</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-853.632393946581</v>
-      </c>
-      <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>71000</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>71250</v>
-      </c>
-      <c r="C255" t="n">
-        <v>71250</v>
-      </c>
-      <c r="D255" t="n">
-        <v>71250</v>
-      </c>
-      <c r="E255" t="n">
-        <v>71250</v>
-      </c>
-      <c r="F255" t="n">
-        <v>1.143</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-854.7753939465811</v>
-      </c>
-      <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>71300</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>71300</v>
-      </c>
-      <c r="C256" t="n">
-        <v>71300</v>
-      </c>
-      <c r="D256" t="n">
-        <v>71300</v>
-      </c>
-      <c r="E256" t="n">
-        <v>71300</v>
-      </c>
-      <c r="F256" t="n">
-        <v>2.0319</v>
-      </c>
-      <c r="G256" t="n">
-        <v>-852.7434939465811</v>
-      </c>
-      <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>71250</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>70750</v>
-      </c>
-      <c r="C257" t="n">
-        <v>70750</v>
-      </c>
-      <c r="D257" t="n">
-        <v>70750</v>
-      </c>
-      <c r="E257" t="n">
-        <v>70750</v>
-      </c>
-      <c r="F257" t="n">
-        <v>0.0818</v>
-      </c>
-      <c r="G257" t="n">
-        <v>-852.8252939465812</v>
-      </c>
-      <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>71300</v>
-      </c>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>71300</v>
-      </c>
-      <c r="C258" t="n">
-        <v>71300</v>
-      </c>
-      <c r="D258" t="n">
-        <v>71300</v>
-      </c>
-      <c r="E258" t="n">
-        <v>71300</v>
-      </c>
-      <c r="F258" t="n">
-        <v>2.243394109396</v>
-      </c>
-      <c r="G258" t="n">
-        <v>-850.5818998371851</v>
-      </c>
-      <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>70750</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>70800</v>
-      </c>
-      <c r="C259" t="n">
-        <v>70700</v>
-      </c>
-      <c r="D259" t="n">
-        <v>70800</v>
-      </c>
-      <c r="E259" t="n">
-        <v>70700</v>
-      </c>
-      <c r="F259" t="n">
-        <v>7.3226</v>
-      </c>
-      <c r="G259" t="n">
-        <v>-857.9044998371851</v>
-      </c>
-      <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>71300</v>
-      </c>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>70750</v>
-      </c>
-      <c r="C260" t="n">
-        <v>70750</v>
-      </c>
-      <c r="D260" t="n">
-        <v>70750</v>
-      </c>
-      <c r="E260" t="n">
-        <v>70750</v>
-      </c>
-      <c r="F260" t="n">
-        <v>1.0741</v>
-      </c>
-      <c r="G260" t="n">
-        <v>-856.830399837185</v>
-      </c>
-      <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>70700</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>71000</v>
-      </c>
-      <c r="C261" t="n">
-        <v>71450</v>
-      </c>
-      <c r="D261" t="n">
-        <v>71450</v>
-      </c>
-      <c r="E261" t="n">
-        <v>71000</v>
-      </c>
-      <c r="F261" t="n">
-        <v>63.297901539538</v>
-      </c>
-      <c r="G261" t="n">
-        <v>-793.5324982976471</v>
-      </c>
-      <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>70750</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>71300</v>
-      </c>
-      <c r="C262" t="n">
-        <v>71300</v>
-      </c>
-      <c r="D262" t="n">
-        <v>71300</v>
-      </c>
-      <c r="E262" t="n">
-        <v>71300</v>
-      </c>
-      <c r="F262" t="n">
-        <v>0.1595</v>
-      </c>
-      <c r="G262" t="n">
-        <v>-793.691998297647</v>
-      </c>
-      <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>71450</v>
-      </c>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>70800</v>
-      </c>
-      <c r="C263" t="n">
-        <v>70800</v>
-      </c>
-      <c r="D263" t="n">
-        <v>70800</v>
-      </c>
-      <c r="E263" t="n">
-        <v>70800</v>
-      </c>
-      <c r="F263" t="n">
-        <v>0.6766</v>
-      </c>
-      <c r="G263" t="n">
-        <v>-794.3685982976471</v>
-      </c>
-      <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>71300</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>71100</v>
-      </c>
-      <c r="C264" t="n">
-        <v>71100</v>
-      </c>
-      <c r="D264" t="n">
-        <v>71100</v>
-      </c>
-      <c r="E264" t="n">
-        <v>71100</v>
-      </c>
-      <c r="F264" t="n">
-        <v>1.4751</v>
-      </c>
-      <c r="G264" t="n">
-        <v>-792.8934982976471</v>
-      </c>
-      <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>70800</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>71100</v>
-      </c>
-      <c r="C265" t="n">
-        <v>71100</v>
-      </c>
-      <c r="D265" t="n">
-        <v>71100</v>
-      </c>
-      <c r="E265" t="n">
-        <v>71100</v>
-      </c>
-      <c r="F265" t="n">
-        <v>1</v>
-      </c>
-      <c r="G265" t="n">
-        <v>-792.8934982976471</v>
-      </c>
-      <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>71100</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>71100</v>
-      </c>
-      <c r="C266" t="n">
-        <v>71100</v>
-      </c>
-      <c r="D266" t="n">
-        <v>71100</v>
-      </c>
-      <c r="E266" t="n">
-        <v>71100</v>
-      </c>
-      <c r="F266" t="n">
-        <v>3.4503</v>
-      </c>
-      <c r="G266" t="n">
-        <v>-792.8934982976471</v>
-      </c>
-      <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>71100</v>
-      </c>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>70900</v>
-      </c>
-      <c r="C267" t="n">
-        <v>70850</v>
-      </c>
-      <c r="D267" t="n">
-        <v>70900</v>
-      </c>
-      <c r="E267" t="n">
-        <v>70850</v>
-      </c>
-      <c r="F267" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-797.3934982976471</v>
-      </c>
-      <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>71100</v>
-      </c>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>70850</v>
-      </c>
-      <c r="C268" t="n">
-        <v>70800</v>
-      </c>
-      <c r="D268" t="n">
-        <v>70850</v>
-      </c>
-      <c r="E268" t="n">
-        <v>70800</v>
-      </c>
-      <c r="F268" t="n">
-        <v>3.0333</v>
-      </c>
-      <c r="G268" t="n">
-        <v>-800.4267982976471</v>
-      </c>
-      <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>70850</v>
-      </c>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>70800</v>
-      </c>
-      <c r="C269" t="n">
-        <v>70700</v>
-      </c>
-      <c r="D269" t="n">
-        <v>70800</v>
-      </c>
-      <c r="E269" t="n">
-        <v>70700</v>
-      </c>
-      <c r="F269" t="n">
-        <v>66.3468</v>
-      </c>
-      <c r="G269" t="n">
-        <v>-866.7735982976471</v>
-      </c>
-      <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>70800</v>
-      </c>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>70950</v>
-      </c>
-      <c r="C270" t="n">
-        <v>70950</v>
-      </c>
-      <c r="D270" t="n">
-        <v>70950</v>
-      </c>
-      <c r="E270" t="n">
-        <v>70950</v>
-      </c>
-      <c r="F270" t="n">
-        <v>0.0141</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-866.7594982976472</v>
-      </c>
-      <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>70700</v>
-      </c>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>70700</v>
-      </c>
-      <c r="C271" t="n">
-        <v>70700</v>
-      </c>
-      <c r="D271" t="n">
-        <v>70700</v>
-      </c>
-      <c r="E271" t="n">
-        <v>70700</v>
-      </c>
-      <c r="F271" t="n">
-        <v>0.0143</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-866.7737982976472</v>
-      </c>
-      <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>70950</v>
-      </c>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>70700</v>
-      </c>
-      <c r="C272" t="n">
-        <v>70700</v>
-      </c>
-      <c r="D272" t="n">
-        <v>70700</v>
-      </c>
-      <c r="E272" t="n">
-        <v>70700</v>
-      </c>
-      <c r="F272" t="n">
-        <v>1</v>
-      </c>
-      <c r="G272" t="n">
-        <v>-866.7737982976472</v>
-      </c>
-      <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>70700</v>
-      </c>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>70700</v>
-      </c>
-      <c r="C273" t="n">
-        <v>70700</v>
-      </c>
-      <c r="D273" t="n">
-        <v>70700</v>
-      </c>
-      <c r="E273" t="n">
-        <v>70700</v>
-      </c>
-      <c r="F273" t="n">
-        <v>0.990806223479</v>
-      </c>
-      <c r="G273" t="n">
-        <v>-866.7737982976472</v>
-      </c>
-      <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>70700</v>
-      </c>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>70350</v>
-      </c>
-      <c r="C274" t="n">
-        <v>70350</v>
-      </c>
-      <c r="D274" t="n">
-        <v>70350</v>
-      </c>
-      <c r="E274" t="n">
-        <v>70350</v>
-      </c>
-      <c r="F274" t="n">
-        <v>0.0143</v>
-      </c>
-      <c r="G274" t="n">
-        <v>-866.7880982976473</v>
-      </c>
-      <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>70700</v>
-      </c>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>70200</v>
-      </c>
-      <c r="C275" t="n">
-        <v>70100</v>
-      </c>
-      <c r="D275" t="n">
-        <v>70200</v>
-      </c>
-      <c r="E275" t="n">
-        <v>70100</v>
-      </c>
-      <c r="F275" t="n">
-        <v>41.3537</v>
-      </c>
-      <c r="G275" t="n">
-        <v>-908.1417982976473</v>
-      </c>
-      <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>70350</v>
-      </c>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>70650</v>
-      </c>
-      <c r="C276" t="n">
-        <v>70650</v>
-      </c>
-      <c r="D276" t="n">
-        <v>70650</v>
-      </c>
-      <c r="E276" t="n">
-        <v>70650</v>
-      </c>
-      <c r="F276" t="n">
-        <v>0.803</v>
-      </c>
-      <c r="G276" t="n">
-        <v>-907.3387982976473</v>
-      </c>
-      <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>70100</v>
-      </c>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>70550</v>
-      </c>
-      <c r="C277" t="n">
-        <v>70550</v>
-      </c>
-      <c r="D277" t="n">
-        <v>70550</v>
-      </c>
-      <c r="E277" t="n">
-        <v>70550</v>
-      </c>
-      <c r="F277" t="n">
-        <v>1.1896</v>
-      </c>
-      <c r="G277" t="n">
-        <v>-908.5283982976473</v>
-      </c>
-      <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>70650</v>
-      </c>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>70550</v>
-      </c>
-      <c r="C278" t="n">
-        <v>70600</v>
-      </c>
-      <c r="D278" t="n">
-        <v>70600</v>
-      </c>
-      <c r="E278" t="n">
-        <v>70550</v>
-      </c>
-      <c r="F278" t="n">
-        <v>1.5034</v>
-      </c>
-      <c r="G278" t="n">
-        <v>-907.0249982976472</v>
-      </c>
-      <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>70550</v>
-      </c>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>70250</v>
-      </c>
-      <c r="C279" t="n">
-        <v>70250</v>
-      </c>
-      <c r="D279" t="n">
-        <v>70250</v>
-      </c>
-      <c r="E279" t="n">
-        <v>70250</v>
-      </c>
-      <c r="F279" t="n">
-        <v>1.2968</v>
-      </c>
-      <c r="G279" t="n">
-        <v>-908.3217982976472</v>
-      </c>
-      <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>70600</v>
-      </c>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>70500</v>
-      </c>
-      <c r="C280" t="n">
-        <v>70500</v>
-      </c>
-      <c r="D280" t="n">
-        <v>70500</v>
-      </c>
-      <c r="E280" t="n">
-        <v>70500</v>
-      </c>
-      <c r="F280" t="n">
-        <v>10.675</v>
-      </c>
-      <c r="G280" t="n">
-        <v>-897.6467982976473</v>
-      </c>
-      <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>70250</v>
-      </c>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>70550</v>
-      </c>
-      <c r="C281" t="n">
-        <v>70600</v>
-      </c>
-      <c r="D281" t="n">
-        <v>70600</v>
-      </c>
-      <c r="E281" t="n">
-        <v>70550</v>
-      </c>
-      <c r="F281" t="n">
-        <v>83.25230000000001</v>
-      </c>
-      <c r="G281" t="n">
-        <v>-814.3944982976473</v>
-      </c>
-      <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>70500</v>
-      </c>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10717,12 +9765,12 @@
         <v>-763.3472982976473</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="n">
         <v>70600</v>
       </c>
-      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10756,12 +9804,12 @@
         <v>-761.8460982976472</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>71050</v>
-      </c>
-      <c r="J283" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>70600</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10795,12 +9843,12 @@
         <v>-747.5109982976472</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>71400</v>
-      </c>
-      <c r="J284" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>70600</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10834,12 +9882,12 @@
         <v>-747.1509982976472</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>71500</v>
-      </c>
-      <c r="J285" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>70600</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10873,12 +9921,12 @@
         <v>-747.1509982976472</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>71600</v>
-      </c>
-      <c r="J286" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>70600</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10912,12 +9960,12 @@
         <v>-770.5626982976472</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>71600</v>
-      </c>
-      <c r="J287" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>70600</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10951,12 +9999,12 @@
         <v>-769.3877982976472</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>71500</v>
-      </c>
-      <c r="J288" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>70600</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10990,12 +10038,12 @@
         <v>-762.3864982976472</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>71950</v>
-      </c>
-      <c r="J289" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>70600</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11029,12 +10077,12 @@
         <v>-759.9815982976472</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>72000</v>
-      </c>
-      <c r="J290" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>70600</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11068,12 +10116,12 @@
         <v>-759.9815982976472</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>72200</v>
-      </c>
-      <c r="J291" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>70600</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11107,12 +10155,12 @@
         <v>-756.1314982976472</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>72200</v>
-      </c>
-      <c r="J292" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>70600</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11146,12 +10194,12 @@
         <v>-754.1314982976472</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>72400</v>
-      </c>
-      <c r="J293" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>70600</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11185,12 +10233,12 @@
         <v>-752.4315982976473</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>72600</v>
-      </c>
-      <c r="J294" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>70600</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11224,12 +10272,12 @@
         <v>-748.4315982976473</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>72700</v>
-      </c>
-      <c r="J295" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>70600</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11263,12 +10311,12 @@
         <v>-743.3316982976472</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>73300</v>
-      </c>
-      <c r="J296" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>70600</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11302,12 +10350,12 @@
         <v>-743.3453037398232</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>73700</v>
-      </c>
-      <c r="J297" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>70600</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11341,12 +10389,12 @@
         <v>-735.3453037398232</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>73500</v>
-      </c>
-      <c r="J298" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>70600</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11380,12 +10428,12 @@
         <v>-735.3453037398232</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>74500</v>
-      </c>
-      <c r="J299" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>70600</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11419,12 +10467,12 @@
         <v>-745.6353037398231</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>74500</v>
-      </c>
-      <c r="J300" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>70600</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11458,12 +10506,12 @@
         <v>-756.9317037398231</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>73750</v>
-      </c>
-      <c r="J301" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>70600</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11497,12 +10545,12 @@
         <v>-765.9825037398231</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>73700</v>
-      </c>
-      <c r="J302" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>70600</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11536,12 +10584,12 @@
         <v>-764.5996037398231</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>73350</v>
-      </c>
-      <c r="J303" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>70600</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11575,12 +10623,12 @@
         <v>-763.8554037398231</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>73700</v>
-      </c>
-      <c r="J304" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>70600</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11614,12 +10662,12 @@
         <v>-760.2254037398232</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>73750</v>
-      </c>
-      <c r="J305" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>70600</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11653,12 +10701,12 @@
         <v>-762.2433037398232</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>74150</v>
-      </c>
-      <c r="J306" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>70600</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11692,12 +10740,12 @@
         <v>-761.1203037398232</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>74000</v>
-      </c>
-      <c r="J307" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>70600</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11731,12 +10779,12 @@
         <v>-761.1203037398232</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>74450</v>
-      </c>
-      <c r="J308" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>70600</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11770,12 +10818,12 @@
         <v>-761.1068809210321</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>74450</v>
-      </c>
-      <c r="J309" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>70600</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11809,12 +10857,12 @@
         <v>-762.7027809210322</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>74500</v>
-      </c>
-      <c r="J310" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>70600</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11848,12 +10896,12 @@
         <v>-762.7027809210322</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>73900</v>
-      </c>
-      <c r="J311" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>70600</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11887,12 +10935,12 @@
         <v>-765.2950215439162</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>73900</v>
-      </c>
-      <c r="J312" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>70600</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11926,12 +10974,12 @@
         <v>-765.6634215439161</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>73350</v>
-      </c>
-      <c r="J313" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>70600</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11965,12 +11013,12 @@
         <v>-775.5131215439161</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>73300</v>
-      </c>
-      <c r="J314" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>70600</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12004,12 +11052,12 @@
         <v>-774.8606215439161</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>72750</v>
-      </c>
-      <c r="J315" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>70600</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12043,12 +11091,12 @@
         <v>-767.3781215439161</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>73000</v>
-      </c>
-      <c r="J316" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>70600</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12082,12 +11130,12 @@
         <v>-749.5928215439161</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>73200</v>
-      </c>
-      <c r="J317" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>70600</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12121,12 +11169,12 @@
         <v>-723.4144215439161</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>73450</v>
-      </c>
-      <c r="J318" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>70600</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12160,12 +11208,12 @@
         <v>-730.8731215439161</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>74050</v>
-      </c>
-      <c r="J319" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>70600</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12199,12 +11247,12 @@
         <v>-730.8731215439161</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>73600</v>
-      </c>
-      <c r="J320" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>70600</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12238,12 +11286,12 @@
         <v>-730.6969215439161</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>73600</v>
-      </c>
-      <c r="J321" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>70600</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12277,12 +11325,12 @@
         <v>-714.2969215439161</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>73650</v>
-      </c>
-      <c r="J322" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>70600</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12316,12 +11364,12 @@
         <v>-714.4969215439162</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>73700</v>
-      </c>
-      <c r="J323" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>70600</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12355,12 +11403,12 @@
         <v>-714.5106215439162</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>73350</v>
-      </c>
-      <c r="J324" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>70600</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12394,12 +11442,12 @@
         <v>-711.9753215439162</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>73300</v>
-      </c>
-      <c r="J325" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>70600</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12433,12 +11481,12 @@
         <v>-712.7456215439162</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>73350</v>
-      </c>
-      <c r="J326" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>70600</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12472,12 +11520,12 @@
         <v>-710.3834215439161</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>73050</v>
-      </c>
-      <c r="J327" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>70600</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12511,12 +11559,12 @@
         <v>-709.9212215439161</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>73450</v>
-      </c>
-      <c r="J328" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>70600</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12550,12 +11598,12 @@
         <v>-707.615721543916</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>73750</v>
-      </c>
-      <c r="J329" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>70600</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12589,12 +11637,12 @@
         <v>-707.629421543916</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>73850</v>
-      </c>
-      <c r="J330" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>70600</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12628,12 +11676,12 @@
         <v>-707.573121543916</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>73050</v>
-      </c>
-      <c r="J331" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>70600</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12667,12 +11715,12 @@
         <v>-697.719921543916</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>73150</v>
-      </c>
-      <c r="J332" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>70600</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12706,12 +11754,12 @@
         <v>-717.719921543916</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>73450</v>
-      </c>
-      <c r="J333" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>70600</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12745,12 +11793,12 @@
         <v>475.723978456084</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>73150</v>
-      </c>
-      <c r="J334" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>70600</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12787,7 +11835,9 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>70600</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12824,7 +11874,9 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>70600</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12861,7 +11913,9 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>70600</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12898,7 +11952,9 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>70600</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12935,7 +11991,9 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>70600</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12972,7 +12030,9 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>70600</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13009,7 +12069,9 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>70600</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13046,7 +12108,9 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>70600</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13083,7 +12147,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>70600</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13120,7 +12186,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>70600</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13157,7 +12225,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>70600</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13194,7 +12264,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>70600</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13231,7 +12303,9 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>70600</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13268,7 +12342,9 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>70600</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13305,7 +12381,9 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>70600</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13342,7 +12420,9 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>70600</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13379,7 +12459,9 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>70600</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13416,7 +12498,9 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>70600</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13453,7 +12537,9 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>70600</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13490,7 +12576,9 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>70600</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13527,7 +12615,9 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>70600</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13564,7 +12654,9 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>70600</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13601,7 +12693,9 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>70600</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13638,7 +12732,9 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>70600</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13650,6 +12746,6 @@
       <c r="M358" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest XMR.xlsx
+++ b/BackTest/2020-01-16 BackTest XMR.xlsx
@@ -616,10 +616,14 @@
         <v>-838.8802492273741</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>66500</v>
+      </c>
+      <c r="J7" t="n">
+        <v>66500</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
@@ -649,11 +653,19 @@
         <v>-838.8802492273741</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>66450</v>
+      </c>
+      <c r="J8" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -685,8 +697,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +733,19 @@
         <v>-839.2108492273741</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>66300</v>
+      </c>
+      <c r="J10" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +774,19 @@
         <v>-840.3302492273741</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>66150</v>
+      </c>
+      <c r="J11" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +815,19 @@
         <v>-814.2611492273741</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>65850</v>
+      </c>
+      <c r="J12" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +856,19 @@
         <v>-814.2611492273741</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>66500</v>
+      </c>
+      <c r="J13" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +897,19 @@
         <v>-826.297549227374</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>66500</v>
+      </c>
+      <c r="J14" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +938,19 @@
         <v>-827.1252492273741</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>66450</v>
+      </c>
+      <c r="J15" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +979,19 @@
         <v>-824.7917492273741</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>65900</v>
+      </c>
+      <c r="J16" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1020,19 @@
         <v>-774.4184492273741</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>66600</v>
+      </c>
+      <c r="J17" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1061,19 @@
         <v>-774.4184492273741</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>67000</v>
+      </c>
+      <c r="J18" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1102,19 @@
         <v>-774.2184492273741</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>67000</v>
+      </c>
+      <c r="J19" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1143,19 @@
         <v>-774.2184492273741</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>67300</v>
+      </c>
+      <c r="J20" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1184,19 @@
         <v>-797.167449227374</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>67300</v>
+      </c>
+      <c r="J21" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1225,19 @@
         <v>-796.509449227374</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>66900</v>
+      </c>
+      <c r="J22" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1266,19 @@
         <v>-795.444749227374</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>67050</v>
+      </c>
+      <c r="J23" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1307,19 @@
         <v>-795.444749227374</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>67550</v>
+      </c>
+      <c r="J24" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1348,19 @@
         <v>-794.2665492273741</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>67550</v>
+      </c>
+      <c r="J25" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1389,19 @@
         <v>-797.9879492273741</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>67600</v>
+      </c>
+      <c r="J26" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1430,19 @@
         <v>-800.1764492273741</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>67250</v>
+      </c>
+      <c r="J27" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1471,19 @@
         <v>-800.003149227374</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>67000</v>
+      </c>
+      <c r="J28" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1512,19 @@
         <v>-887.8376492273741</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>67500</v>
+      </c>
+      <c r="J29" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1553,19 @@
         <v>-877.1547492273741</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>67450</v>
+      </c>
+      <c r="J30" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1594,19 @@
         <v>-558.846349227374</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>67600</v>
+      </c>
+      <c r="J31" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1635,19 @@
         <v>-570.4177492273741</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>67750</v>
+      </c>
+      <c r="J32" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1676,19 @@
         <v>-566.4177492273741</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>66900</v>
+      </c>
+      <c r="J33" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1717,19 @@
         <v>-570.0607492273741</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>67500</v>
+      </c>
+      <c r="J34" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1758,19 @@
         <v>-571.3563492273742</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>67000</v>
+      </c>
+      <c r="J35" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1799,19 @@
         <v>-571.3563492273742</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>66750</v>
+      </c>
+      <c r="J36" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1840,19 @@
         <v>-571.2563492273741</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>66750</v>
+      </c>
+      <c r="J37" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1881,19 @@
         <v>-572.0513492273741</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>67100</v>
+      </c>
+      <c r="J38" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1922,19 @@
         <v>-568.8816492273741</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>67000</v>
+      </c>
+      <c r="J39" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1963,19 @@
         <v>-568.8816492273741</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>67500</v>
+      </c>
+      <c r="J40" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +2004,19 @@
         <v>-568.8816492273741</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>67500</v>
+      </c>
+      <c r="J41" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +2045,19 @@
         <v>-568.8816492273741</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>67500</v>
+      </c>
+      <c r="J42" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +2086,19 @@
         <v>-568.8816492273741</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>67500</v>
+      </c>
+      <c r="J43" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +2127,19 @@
         <v>-568.8816492273741</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>67500</v>
+      </c>
+      <c r="J44" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +2168,19 @@
         <v>-568.8816492273741</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>67500</v>
+      </c>
+      <c r="J45" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2209,19 @@
         <v>-568.8816492273741</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>67500</v>
+      </c>
+      <c r="J46" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2250,19 @@
         <v>-574.8816492273741</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>67500</v>
+      </c>
+      <c r="J47" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2291,19 @@
         <v>-572.851849227374</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>66700</v>
+      </c>
+      <c r="J48" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2332,19 @@
         <v>-570.345049227374</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>66750</v>
+      </c>
+      <c r="J49" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2373,19 @@
         <v>-559.639049227374</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>67650</v>
+      </c>
+      <c r="J50" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2414,19 @@
         <v>-550.996349227374</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>67800</v>
+      </c>
+      <c r="J51" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2458,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2497,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2536,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2575,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2614,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2653,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2692,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2731,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2770,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2809,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2848,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2887,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2926,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2965,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +3004,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +3043,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +3082,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +3121,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +3160,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +3199,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +3238,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +3277,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3316,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3355,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3394,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3433,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3472,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3511,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3550,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3589,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3628,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3667,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3706,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3745,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3784,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3823,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3862,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3901,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3940,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3979,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +4018,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +4057,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +4096,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +4135,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +4174,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +4213,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +4252,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +4291,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +4327,17 @@
         <v>946.969546596858</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +4366,17 @@
         <v>459.418446596858</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +4405,17 @@
         <v>459.418446596858</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +4444,17 @@
         <v>110.850546596858</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +4483,17 @@
         <v>-230.047353403142</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +4522,17 @@
         <v>-340.42845716254</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +4561,17 @@
         <v>-376.7035571625401</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +4600,17 @@
         <v>-376.7035571625401</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +4639,17 @@
         <v>-397.7001571625401</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +4678,17 @@
         <v>-397.10015716254</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +4717,17 @@
         <v>-316.20655716254</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4048,11 +4756,17 @@
         <v>-275.93035716254</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4081,11 +4795,17 @@
         <v>-352.60215716254</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4837,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4876,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4183,8 +4915,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4954,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4993,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4282,8 +5032,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4315,8 +5071,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4348,8 +5110,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4378,15 +5146,23 @@
         <v>133.2141086569989</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>1.15890977443609</v>
+      </c>
+      <c r="M121" t="n">
+        <v>1.029230769230769</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4411,7 +5187,7 @@
         <v>267.9032086569989</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +5220,7 @@
         <v>241.3092086569989</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +5253,7 @@
         <v>188.6710086569989</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +5286,7 @@
         <v>123.7325086569989</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +5319,7 @@
         <v>133.9325086569989</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4609,7 +5385,7 @@
         <v>78.60520865699893</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +5418,7 @@
         <v>78.87040865699892</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +5451,7 @@
         <v>-300.4535913430011</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +5484,7 @@
         <v>-341.6950913430011</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4807,7 +5583,7 @@
         <v>-75.39800747203407</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +5616,7 @@
         <v>-76.81690747203406</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +5649,7 @@
         <v>-76.81690747203406</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +5682,7 @@
         <v>-83.64210747203406</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -8635,14 +9411,10 @@
         <v>-857.245193946581</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>69800</v>
-      </c>
-      <c r="J250" t="n">
-        <v>69800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
@@ -8672,19 +9444,11 @@
         <v>-857.245193946581</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>69750</v>
-      </c>
-      <c r="J251" t="n">
-        <v>69800</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8713,19 +9477,11 @@
         <v>-855.245193946581</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>69750</v>
-      </c>
-      <c r="J252" t="n">
-        <v>69800</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8754,14 +9510,10 @@
         <v>-854.245193946581</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>70450</v>
-      </c>
-      <c r="J253" t="n">
-        <v>70450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
@@ -8791,19 +9543,11 @@
         <v>-853.632393946581</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>71000</v>
-      </c>
-      <c r="J254" t="n">
-        <v>70450</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8832,19 +9576,11 @@
         <v>-854.7753939465811</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>71300</v>
-      </c>
-      <c r="J255" t="n">
-        <v>70450</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8873,14 +9609,10 @@
         <v>-852.7434939465811</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>71250</v>
-      </c>
-      <c r="J256" t="n">
-        <v>71250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
@@ -8910,19 +9642,11 @@
         <v>-852.8252939465812</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>71300</v>
-      </c>
-      <c r="J257" t="n">
-        <v>71250</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8954,14 +9678,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>71250</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9650,14 +10368,10 @@
         <v>-908.3217982976472</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>70600</v>
-      </c>
-      <c r="J279" t="n">
-        <v>70600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
@@ -9690,14 +10404,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9729,14 +10437,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9768,14 +10470,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9804,17 +10500,11 @@
         <v>-761.8460982976472</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9846,14 +10536,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9882,17 +10566,11 @@
         <v>-747.1509982976472</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9921,17 +10599,11 @@
         <v>-747.1509982976472</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9960,17 +10632,11 @@
         <v>-770.5626982976472</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9999,17 +10665,11 @@
         <v>-769.3877982976472</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10038,17 +10698,11 @@
         <v>-762.3864982976472</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10080,14 +10734,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10119,14 +10767,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10158,14 +10800,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10197,14 +10833,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10236,14 +10866,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10275,14 +10899,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10314,14 +10932,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10353,14 +10965,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10392,14 +10998,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10431,14 +11031,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10470,14 +11064,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10509,14 +11097,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10548,14 +11130,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10587,14 +11163,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10626,14 +11196,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10665,14 +11229,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10704,14 +11262,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10743,14 +11295,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10782,14 +11328,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10821,14 +11361,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10860,14 +11394,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10899,14 +11427,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10938,14 +11460,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10977,14 +11493,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11016,14 +11526,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11055,14 +11559,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11094,14 +11592,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11133,14 +11625,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11172,14 +11658,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11211,14 +11691,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11250,14 +11724,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11289,14 +11757,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11328,14 +11790,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11367,14 +11823,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11406,14 +11856,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11445,14 +11889,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11484,14 +11922,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11523,14 +11955,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11562,14 +11988,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11601,14 +12021,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11640,14 +12054,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11679,14 +12087,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11718,14 +12120,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11757,14 +12153,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11796,14 +12186,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11835,14 +12219,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11874,14 +12252,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11913,14 +12285,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11952,14 +12318,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11991,14 +12351,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12030,14 +12384,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12069,14 +12417,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12108,14 +12450,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12147,14 +12483,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12186,14 +12516,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12225,14 +12549,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12264,14 +12582,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12303,14 +12615,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12342,14 +12648,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12381,14 +12681,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12420,14 +12714,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12459,14 +12747,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12498,14 +12780,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12537,14 +12813,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12576,14 +12846,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12615,14 +12879,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12654,14 +12912,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12693,14 +12945,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12732,14 +12978,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>70600</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
